--- a/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.393154615845333</v>
+        <v>3.036448906246449</v>
       </c>
       <c r="C2">
-        <v>0.7416665622897938</v>
+        <v>0.4745763076892047</v>
       </c>
       <c r="D2">
-        <v>0.01666235142294425</v>
+        <v>0.0662435832344741</v>
       </c>
       <c r="E2">
-        <v>0.1266449933452058</v>
+        <v>0.02508282528623407</v>
       </c>
       <c r="F2">
-        <v>2.585449205611553</v>
+        <v>2.31777026028216</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.403603373589533</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1060434012714992</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7165207657918273</v>
+        <v>0.7421680907232968</v>
       </c>
       <c r="L2">
-        <v>0.3133533060218952</v>
+        <v>0.1485182255812703</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4930384345658396</v>
+      </c>
+      <c r="N2">
+        <v>1.644010385553841</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.062056510796538</v>
+        <v>2.647574749567184</v>
       </c>
       <c r="C3">
-        <v>0.6374468496290433</v>
+        <v>0.410041045671079</v>
       </c>
       <c r="D3">
-        <v>0.01723824890034464</v>
+        <v>0.06808214239224597</v>
       </c>
       <c r="E3">
-        <v>0.1095607575550446</v>
+        <v>0.02488303769504419</v>
       </c>
       <c r="F3">
-        <v>2.313297115550057</v>
+        <v>2.11818136039291</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.280053127834648</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09270604288572315</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6169284779969715</v>
+        <v>0.6425817567961687</v>
       </c>
       <c r="L3">
-        <v>0.2698750618128472</v>
+        <v>0.1345797018681267</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4325838088760676</v>
+      </c>
+      <c r="N3">
+        <v>1.658361379391451</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861961192931204</v>
+        <v>2.413437145756006</v>
       </c>
       <c r="C4">
-        <v>0.574616166208358</v>
+        <v>0.3709540601913659</v>
       </c>
       <c r="D4">
-        <v>0.01760809138697716</v>
+        <v>0.06928881858731728</v>
       </c>
       <c r="E4">
-        <v>0.09930764524909463</v>
+        <v>0.02476735725952794</v>
       </c>
       <c r="F4">
-        <v>2.151773092015489</v>
+        <v>2.00015620279558</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.207224894140069</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08474894417505041</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5567816545354773</v>
+        <v>0.5825283631570741</v>
       </c>
       <c r="L4">
-        <v>0.2437277927001773</v>
+        <v>0.1262595913788402</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3962356073442095</v>
+      </c>
+      <c r="N4">
+        <v>1.66929907934086</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.781103478546697</v>
+        <v>2.319048305756098</v>
       </c>
       <c r="C5">
-        <v>0.5492587470709793</v>
+        <v>0.3551374614483223</v>
       </c>
       <c r="D5">
-        <v>0.01776244459184539</v>
+        <v>0.06979909633243508</v>
       </c>
       <c r="E5">
-        <v>0.09518097558147076</v>
+        <v>0.02472176629224987</v>
       </c>
       <c r="F5">
-        <v>2.08719553220466</v>
+        <v>1.953089182704431</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.178228078890527</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08155739370940651</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5324850976950728</v>
+        <v>0.5582949669447999</v>
       </c>
       <c r="L5">
-        <v>0.2331908969430501</v>
+        <v>0.1229235189187747</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3815951956672521</v>
+      </c>
+      <c r="N5">
+        <v>1.67425963044866</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.767715002838884</v>
+        <v>2.303433070313474</v>
       </c>
       <c r="C6">
-        <v>0.5450618185580254</v>
+        <v>0.3525172199548479</v>
       </c>
       <c r="D6">
-        <v>0.01778828263305243</v>
+        <v>0.06988492006954061</v>
       </c>
       <c r="E6">
-        <v>0.09449864033278388</v>
+        <v>0.02471428389775454</v>
       </c>
       <c r="F6">
-        <v>2.076543310151351</v>
+        <v>1.945332905797073</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.173452091301755</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08103031989453413</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5284625260549092</v>
+        <v>0.5542844602439345</v>
       </c>
       <c r="L6">
-        <v>0.2314478614631312</v>
+        <v>0.1223727034504378</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3791739283554705</v>
+      </c>
+      <c r="N6">
+        <v>1.67511286252126</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.860868106010798</v>
+        <v>2.412160215783842</v>
       </c>
       <c r="C7">
-        <v>0.5742732454353359</v>
+        <v>0.3707403296017162</v>
       </c>
       <c r="D7">
-        <v>0.0176101588613804</v>
+        <v>0.06929562653889221</v>
       </c>
       <c r="E7">
-        <v>0.09925179277210816</v>
+        <v>0.02476673638717086</v>
       </c>
       <c r="F7">
-        <v>2.150897334789661</v>
+        <v>1.999517409867053</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.206831176475987</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08470570437826197</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5564531654339504</v>
+        <v>0.5822006214066491</v>
       </c>
       <c r="L7">
-        <v>0.2435852339189069</v>
+        <v>0.1262143864057066</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3960374940630231</v>
+      </c>
+      <c r="N7">
+        <v>1.669363980441005</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278250562149253</v>
+        <v>2.901314966705456</v>
       </c>
       <c r="C8">
-        <v>0.705462049737946</v>
+        <v>0.4521980247860995</v>
       </c>
       <c r="D8">
-        <v>0.0168572661962898</v>
+        <v>0.06686072860631498</v>
       </c>
       <c r="E8">
-        <v>0.120700193888279</v>
+        <v>0.02501235511628153</v>
       </c>
       <c r="F8">
-        <v>2.49035358834108</v>
+        <v>2.247945131234076</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.360322686963571</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1013918731062411</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6819487402050584</v>
+        <v>0.7075812025414194</v>
       </c>
       <c r="L8">
-        <v>0.2982357479771167</v>
+        <v>0.1436593541233506</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4720196870424687</v>
+      </c>
+      <c r="N8">
+        <v>1.648497646908027</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.128337825565382</v>
+        <v>3.90436730486033</v>
       </c>
       <c r="C9">
-        <v>0.9742383052787602</v>
+        <v>0.6173930930358154</v>
       </c>
       <c r="D9">
-        <v>0.01553285223679701</v>
+        <v>0.06275489554041513</v>
       </c>
       <c r="E9">
-        <v>0.1650423456006891</v>
+        <v>0.02556024715338889</v>
       </c>
       <c r="F9">
-        <v>3.208280389782004</v>
+        <v>2.776419522545183</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.689479457627755</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1363270919647199</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9379662603616481</v>
+        <v>0.9639320616895759</v>
       </c>
       <c r="L9">
-        <v>0.4107547043980446</v>
+        <v>0.1800317541209608</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6282496446778865</v>
+      </c>
+      <c r="N9">
+        <v>1.626012094460023</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.782074925328402</v>
+        <v>4.679099332618705</v>
       </c>
       <c r="C10">
-        <v>1.182418716264976</v>
+        <v>0.7439617039563018</v>
       </c>
       <c r="D10">
-        <v>0.01469067264795143</v>
+        <v>0.06022915919255212</v>
       </c>
       <c r="E10">
-        <v>0.1996553652716742</v>
+        <v>0.02602073601972976</v>
       </c>
       <c r="F10">
-        <v>3.780291437886802</v>
+        <v>3.198358844138369</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.95498793738534</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.163936991500286</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.13524285872171</v>
+        <v>1.16149872218638</v>
       </c>
       <c r="L10">
-        <v>0.4982749843838477</v>
+        <v>0.2084992505390346</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7491780505028558</v>
+      </c>
+      <c r="N10">
+        <v>1.623176345799351</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.088441375845321</v>
+        <v>5.042612266096</v>
       </c>
       <c r="C11">
-        <v>1.280434442449064</v>
+        <v>0.803157943128781</v>
       </c>
       <c r="D11">
-        <v>0.01434664889831616</v>
+        <v>0.0592090335106441</v>
       </c>
       <c r="E11">
-        <v>0.2160142176198718</v>
+        <v>0.02624761871686676</v>
       </c>
       <c r="F11">
-        <v>4.053543939423434</v>
+        <v>3.399815797622296</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.082635853052125</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1770770348211457</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.227814370219249</v>
+        <v>1.254114383719738</v>
       </c>
       <c r="L11">
-        <v>0.539566691328865</v>
+        <v>0.2219381899772515</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8059749674138885</v>
+      </c>
+      <c r="N11">
+        <v>1.62549340483065</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.206004863103203</v>
+        <v>5.182134583236689</v>
       </c>
       <c r="C12">
-        <v>1.318124505941796</v>
+        <v>0.8258542497818553</v>
       </c>
       <c r="D12">
-        <v>0.01422310937917182</v>
+        <v>0.05884350963306773</v>
       </c>
       <c r="E12">
-        <v>0.2223139346354941</v>
+        <v>0.0263365245576499</v>
       </c>
       <c r="F12">
-        <v>4.159224314132615</v>
+        <v>3.477682555468988</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.132130064926059</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1821518846027104</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.263357883415239</v>
+        <v>1.289650594106192</v>
       </c>
       <c r="L12">
-        <v>0.5554572166047436</v>
+        <v>0.2271079680374157</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8277824907840881</v>
+      </c>
+      <c r="N12">
+        <v>1.626951446792674</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.180612016167458</v>
+        <v>5.151998117199867</v>
       </c>
       <c r="C13">
-        <v>1.309980047761599</v>
+        <v>0.8209529203026023</v>
       </c>
       <c r="D13">
-        <v>0.01424939622231136</v>
+        <v>0.05892126801799691</v>
       </c>
       <c r="E13">
-        <v>0.2209522131501984</v>
+        <v>0.0263172354085528</v>
       </c>
       <c r="F13">
-        <v>4.136360247635224</v>
+        <v>3.460838638971751</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.121416175707523</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.181054247064214</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.255679774667584</v>
+        <v>1.281975343561257</v>
       </c>
       <c r="L13">
-        <v>0.5520228647270287</v>
+        <v>0.2259907918228805</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8230717722052745</v>
+      </c>
+      <c r="N13">
+        <v>1.626610529136613</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.098080724145063</v>
+        <v>5.054051713751676</v>
       </c>
       <c r="C14">
-        <v>1.283523117739321</v>
+        <v>0.805019277265842</v>
       </c>
       <c r="D14">
-        <v>0.01433634310027365</v>
+        <v>0.05917853109151139</v>
       </c>
       <c r="E14">
-        <v>0.2165302896532211</v>
+        <v>0.02625487002443361</v>
       </c>
       <c r="F14">
-        <v>4.062192049280725</v>
+        <v>3.406188976907998</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.086683525639998</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1774924635868125</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.230728247466715</v>
+        <v>1.257028218595892</v>
       </c>
       <c r="L14">
-        <v>0.5408686564856637</v>
+        <v>0.2223618278494683</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8077628111451318</v>
+      </c>
+      <c r="N14">
+        <v>1.62560133682814</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.047738019048381</v>
+        <v>4.994308729937757</v>
       </c>
       <c r="C15">
-        <v>1.267395337609287</v>
+        <v>0.7952974327817799</v>
       </c>
       <c r="D15">
-        <v>0.01439051436483041</v>
+        <v>0.05933889064446163</v>
       </c>
       <c r="E15">
-        <v>0.2138359478932728</v>
+        <v>0.0262170747785353</v>
       </c>
       <c r="F15">
-        <v>4.017059790931086</v>
+        <v>3.372926920539641</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.065564884314369</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1753241654538407</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.215511006595335</v>
+        <v>1.241810152116614</v>
       </c>
       <c r="L15">
-        <v>0.5340708421049811</v>
+        <v>0.2201498307835692</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7984260413257687</v>
+      </c>
+      <c r="N15">
+        <v>1.625060775760716</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.76225499308282</v>
+        <v>4.655588540317524</v>
       </c>
       <c r="C16">
-        <v>1.176087794682132</v>
+        <v>0.7401295574973119</v>
       </c>
       <c r="D16">
-        <v>0.01471403245737157</v>
+        <v>0.06029860361048023</v>
       </c>
       <c r="E16">
-        <v>0.1985999928111681</v>
+        <v>0.0260062987078542</v>
       </c>
       <c r="F16">
-        <v>3.762723271153504</v>
+        <v>3.185402032742132</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.946797913809746</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1630912098316024</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.129256737423248</v>
+        <v>1.155507046070909</v>
       </c>
       <c r="L16">
-        <v>0.4956096381505972</v>
+        <v>0.2076316845435429</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7455057196109749</v>
+      </c>
+      <c r="N16">
+        <v>1.62310260755757</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.589591489290115</v>
+        <v>4.450817234951558</v>
       </c>
       <c r="C17">
-        <v>1.120986696209343</v>
+        <v>0.7067321567334659</v>
       </c>
       <c r="D17">
-        <v>0.01492324043002924</v>
+        <v>0.06092184709232384</v>
       </c>
       <c r="E17">
-        <v>0.1894214492695596</v>
+        <v>0.02588177335241904</v>
       </c>
       <c r="F17">
-        <v>3.610255957093216</v>
+        <v>3.072940116629979</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.875809560569166</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1557456228897891</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.077121575376282</v>
+        <v>1.103312287689292</v>
       </c>
       <c r="L17">
-        <v>0.4724212411658755</v>
+        <v>0.2000844473411263</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7135270617549523</v>
+      </c>
+      <c r="N17">
+        <v>1.622866668882097</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.491107490804438</v>
+        <v>4.334063018576273</v>
       </c>
       <c r="C18">
-        <v>1.089599237917298</v>
+        <v>0.6876721185904557</v>
       </c>
       <c r="D18">
-        <v>0.01504717264900535</v>
+        <v>0.06129229385542345</v>
       </c>
       <c r="E18">
-        <v>0.1841987682586108</v>
+        <v>0.02581175411407877</v>
       </c>
       <c r="F18">
-        <v>3.523765875174604</v>
+        <v>3.009136371556423</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.835613752262105</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1515741805807949</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.047395546148508</v>
+        <v>1.073544561439633</v>
       </c>
       <c r="L18">
-        <v>0.4592201898439257</v>
+        <v>0.1957887982773912</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6952990067016387</v>
+      </c>
+      <c r="N18">
+        <v>1.623066307918322</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.457897386081356</v>
+        <v>4.29470029167868</v>
       </c>
       <c r="C19">
-        <v>1.079021690158157</v>
+        <v>0.6812430227196842</v>
       </c>
       <c r="D19">
-        <v>0.01508972188368851</v>
+        <v>0.0614197144134998</v>
       </c>
       <c r="E19">
-        <v>0.1824397041627321</v>
+        <v>0.02578830884300176</v>
       </c>
       <c r="F19">
-        <v>3.494679531725126</v>
+        <v>2.98767891216437</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.822108423026577</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1501705622189604</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.037373312748585</v>
+        <v>1.063507233176651</v>
       </c>
       <c r="L19">
-        <v>0.4547727833565389</v>
+        <v>0.1943418528978071</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6891544597251738</v>
+      </c>
+      <c r="N19">
+        <v>1.623189745395649</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.607884427949671</v>
+        <v>4.472507554632045</v>
       </c>
       <c r="C20">
-        <v>1.126820055721339</v>
+        <v>0.7102715984195527</v>
       </c>
       <c r="D20">
-        <v>0.01490058975335984</v>
+        <v>0.06085424737923262</v>
       </c>
       <c r="E20">
-        <v>0.1903925521375669</v>
+        <v>0.02589485996677499</v>
       </c>
       <c r="F20">
-        <v>3.626359408115633</v>
+        <v>3.08481922011859</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.883299545983306</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1565219262814175</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.082643914224306</v>
+        <v>1.108841811030388</v>
       </c>
       <c r="L20">
-        <v>0.4748752974455144</v>
+        <v>0.2008831016066921</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7169138513716788</v>
+      </c>
+      <c r="N20">
+        <v>1.622856656070411</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.122277862715009</v>
+        <v>5.082767884109558</v>
       </c>
       <c r="C21">
-        <v>1.291277738860572</v>
+        <v>0.8096913675076394</v>
       </c>
       <c r="D21">
-        <v>0.01431061196148775</v>
+        <v>0.05910238311904692</v>
       </c>
       <c r="E21">
-        <v>0.2178261197953901</v>
+        <v>0.02627310278032091</v>
       </c>
       <c r="F21">
-        <v>4.083914300469559</v>
+        <v>3.422196216825</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.09685247367959</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1785358224206242</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.238043136382117</v>
+        <v>1.264342573587513</v>
       </c>
       <c r="L21">
-        <v>0.5441376524310471</v>
+        <v>0.2234254611998665</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8122509175608172</v>
+      </c>
+      <c r="N21">
+        <v>1.625881466745923</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.467644014461541</v>
+        <v>5.492650870808177</v>
       </c>
       <c r="C22">
-        <v>1.402160938008535</v>
+        <v>0.8763267465141666</v>
       </c>
       <c r="D22">
-        <v>0.01396496564049166</v>
+        <v>0.05807985433072815</v>
       </c>
       <c r="E22">
-        <v>0.2363772196920095</v>
+        <v>0.02653802778576253</v>
       </c>
       <c r="F22">
-        <v>4.396001116681191</v>
+        <v>3.652017210247578</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.243262508967632</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1935093445592919</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.342501798470082</v>
+        <v>1.368719732567683</v>
       </c>
       <c r="L22">
-        <v>0.5909109601799187</v>
+        <v>0.2386347056242926</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8763307495707622</v>
+      </c>
+      <c r="N22">
+        <v>1.631277907549489</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.282379323759812</v>
+        <v>5.27277760907748</v>
       </c>
       <c r="C23">
-        <v>1.342632978447227</v>
+        <v>0.8405930466379914</v>
       </c>
       <c r="D23">
-        <v>0.01414536223640361</v>
+        <v>0.05861355467894924</v>
       </c>
       <c r="E23">
-        <v>0.2264129987268433</v>
+        <v>0.02639482635464852</v>
       </c>
       <c r="F23">
-        <v>4.228117522718293</v>
+        <v>3.528426561995644</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.164431692464532</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1854582399296447</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.286454685310801</v>
+        <v>1.312734320604974</v>
       </c>
       <c r="L23">
-        <v>0.56579376723856</v>
+        <v>0.2304698276030734</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8419522896008544</v>
+      </c>
+      <c r="N23">
+        <v>1.628062048710817</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.599611771871423</v>
+        <v>4.462698355219516</v>
       </c>
       <c r="C24">
-        <v>1.124181894935077</v>
+        <v>0.7086709824509967</v>
       </c>
       <c r="D24">
-        <v>0.01491081881910006</v>
+        <v>0.0608847715747487</v>
       </c>
       <c r="E24">
-        <v>0.1899533489863714</v>
+        <v>0.02588893864748965</v>
       </c>
       <c r="F24">
-        <v>3.619075432192886</v>
+        <v>3.079446038893394</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.879911416257386</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1561707998339337</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.080146500959756</v>
+        <v>1.106341172001535</v>
       </c>
       <c r="L24">
-        <v>0.4737654159067688</v>
+        <v>0.2005218957330754</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7153821982433826</v>
+      </c>
+      <c r="N24">
+        <v>1.622860143104717</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.894038297988686</v>
+        <v>3.627256935967353</v>
       </c>
       <c r="C25">
-        <v>0.8999431781111014</v>
+        <v>0.5719393906458095</v>
       </c>
       <c r="D25">
-        <v>0.01587130772987777</v>
+        <v>0.06378615461478887</v>
       </c>
       <c r="E25">
-        <v>0.1527409301774014</v>
+        <v>0.02540328390285929</v>
       </c>
       <c r="F25">
-        <v>3.007255878179706</v>
+        <v>2.628213795270881</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.596797348814675</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1265826479776351</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8673460925817693</v>
+        <v>0.8931873350015564</v>
       </c>
       <c r="L25">
-        <v>0.3795909988755923</v>
+        <v>0.1699193681466369</v>
       </c>
       <c r="M25">
+        <v>0.585043772422587</v>
+      </c>
+      <c r="N25">
+        <v>1.629886550595259</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.036448906246449</v>
+        <v>2.611485503766801</v>
       </c>
       <c r="C2">
-        <v>0.4745763076892047</v>
+        <v>0.4006947181122484</v>
       </c>
       <c r="D2">
-        <v>0.0662435832344741</v>
+        <v>0.03892160226453711</v>
       </c>
       <c r="E2">
-        <v>0.02508282528623407</v>
+        <v>0.03801268009689984</v>
       </c>
       <c r="F2">
-        <v>2.31777026028216</v>
+        <v>0.5670457206655328</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2747450192646888</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7421680907232968</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1485182255812703</v>
+        <v>0.3191236248557203</v>
       </c>
       <c r="M2">
-        <v>0.4930384345658396</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.644010385553841</v>
+        <v>0.6896262412726699</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.615864133733879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.647574749567184</v>
+        <v>2.270109747873846</v>
       </c>
       <c r="C3">
-        <v>0.410041045671079</v>
+        <v>0.3602160953514613</v>
       </c>
       <c r="D3">
-        <v>0.06808214239224597</v>
+        <v>0.03507087701395761</v>
       </c>
       <c r="E3">
-        <v>0.02488303769504419</v>
+        <v>0.03749391814335645</v>
       </c>
       <c r="F3">
-        <v>2.11818136039291</v>
+        <v>0.5180952074261356</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2703751783946622</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6425817567961687</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1345797018681267</v>
+        <v>0.2802626242604731</v>
       </c>
       <c r="M3">
-        <v>0.4325838088760676</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.658361379391451</v>
+        <v>0.7042024856920577</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.501415875004312</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.413437145756006</v>
+        <v>2.060878189849348</v>
       </c>
       <c r="C4">
-        <v>0.3709540601913659</v>
+        <v>0.3353133980432119</v>
       </c>
       <c r="D4">
-        <v>0.06928881858731728</v>
+        <v>0.0326989690983055</v>
       </c>
       <c r="E4">
-        <v>0.02476735725952794</v>
+        <v>0.03724969136274758</v>
       </c>
       <c r="F4">
-        <v>2.00015620279558</v>
+        <v>0.4891564558907504</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2684708348351528</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5825283631570741</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1262595913788402</v>
+        <v>0.2566638112494388</v>
       </c>
       <c r="M4">
-        <v>0.3962356073442095</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.66929907934086</v>
+        <v>0.7140960494859314</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.434771113408175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.319048305756098</v>
+        <v>1.975680737643927</v>
       </c>
       <c r="C5">
-        <v>0.3551374614483223</v>
+        <v>0.3251505393864136</v>
       </c>
       <c r="D5">
-        <v>0.06979909633243508</v>
+        <v>0.03173035351934317</v>
       </c>
       <c r="E5">
-        <v>0.02472176629224987</v>
+        <v>0.03716812663038382</v>
       </c>
       <c r="F5">
-        <v>1.953089182704431</v>
+        <v>0.4776257702042699</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2678807655608502</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5582949669447999</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1229235189187747</v>
+        <v>0.2471065917840178</v>
       </c>
       <c r="M5">
-        <v>0.3815951956672521</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.67425963044866</v>
+        <v>0.7183575732653225</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.408467425480978</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.303433070313474</v>
+        <v>1.96153697024215</v>
       </c>
       <c r="C6">
-        <v>0.3525172199548479</v>
+        <v>0.3234620384072855</v>
       </c>
       <c r="D6">
-        <v>0.06988492006954061</v>
+        <v>0.03156938813083343</v>
       </c>
       <c r="E6">
-        <v>0.02471428389775454</v>
+        <v>0.03715564706706154</v>
       </c>
       <c r="F6">
-        <v>1.945332905797073</v>
+        <v>0.4757264060694837</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2677937375688622</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5542844602439345</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1223727034504378</v>
+        <v>0.24552303517045</v>
       </c>
       <c r="M6">
-        <v>0.3791739283554705</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.67511286252126</v>
+        <v>0.7190788651296174</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.404149708608628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.412160215783842</v>
+        <v>2.059728955426579</v>
       </c>
       <c r="C7">
-        <v>0.3707403296017162</v>
+        <v>0.3351764014009859</v>
       </c>
       <c r="D7">
-        <v>0.06929562653889221</v>
+        <v>0.03268591447083224</v>
       </c>
       <c r="E7">
-        <v>0.02476673638717086</v>
+        <v>0.03724851956564201</v>
       </c>
       <c r="F7">
-        <v>1.999517409867053</v>
+        <v>0.4889999120125452</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2684621366690614</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5822006214066491</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1262143864057066</v>
+        <v>0.2565346865865905</v>
       </c>
       <c r="M7">
-        <v>0.3960374940630231</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.669363980441005</v>
+        <v>0.714152600963736</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.434412986271241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.901314966705456</v>
+        <v>2.493683880145966</v>
       </c>
       <c r="C8">
-        <v>0.4521980247860995</v>
+        <v>0.3867461724505574</v>
       </c>
       <c r="D8">
-        <v>0.06686072860631498</v>
+        <v>0.03759534629924133</v>
       </c>
       <c r="E8">
-        <v>0.02501235511628153</v>
+        <v>0.03781794598233645</v>
       </c>
       <c r="F8">
-        <v>2.247945131234076</v>
+        <v>0.5499241150505227</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2730705841931496</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7075812025414194</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1436593541233506</v>
+        <v>0.3056660105726507</v>
       </c>
       <c r="M8">
-        <v>0.4720196870424687</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.648497646908027</v>
+        <v>0.6944516418689091</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.575614108600831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.90436730486033</v>
+        <v>3.349034056316896</v>
       </c>
       <c r="C9">
-        <v>0.6173930930358154</v>
+        <v>0.4876183789599509</v>
       </c>
       <c r="D9">
-        <v>0.06275489554041513</v>
+        <v>0.04717042251322567</v>
       </c>
       <c r="E9">
-        <v>0.02556024715338889</v>
+        <v>0.0395583829535191</v>
       </c>
       <c r="F9">
-        <v>2.776419522545183</v>
+        <v>0.6791609798561637</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2887562483724651</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9639320616895759</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1800317541209608</v>
+        <v>0.4044011700060395</v>
       </c>
       <c r="M9">
-        <v>0.6282496446778865</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.626012094460023</v>
+        <v>0.663662698733205</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.884037763752673</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.679099332618705</v>
+        <v>3.982255934047771</v>
       </c>
       <c r="C10">
-        <v>0.7439617039563018</v>
+        <v>0.5617759937890696</v>
       </c>
       <c r="D10">
-        <v>0.06022915919255212</v>
+        <v>0.05418536356474135</v>
       </c>
       <c r="E10">
-        <v>0.02602073601972976</v>
+        <v>0.04126770381499334</v>
       </c>
       <c r="F10">
-        <v>3.198358844138369</v>
+        <v>0.781401047710844</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3050255834515383</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.16149872218638</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2084992505390346</v>
+        <v>0.4788626120195261</v>
       </c>
       <c r="M10">
-        <v>0.7491780505028558</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.623176345799351</v>
+        <v>0.6463501900286914</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.133935494298385</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.042612266096</v>
+        <v>4.271883178816552</v>
       </c>
       <c r="C11">
-        <v>0.803157943128781</v>
+        <v>0.5955722511930617</v>
       </c>
       <c r="D11">
-        <v>0.0592090335106441</v>
+        <v>0.0573752672474086</v>
       </c>
       <c r="E11">
-        <v>0.02624761871686676</v>
+        <v>0.04215069913066216</v>
       </c>
       <c r="F11">
-        <v>3.399815797622296</v>
+        <v>0.8298144906233915</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.313621871642269</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.254114383719738</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2219381899772515</v>
+        <v>0.5132652932494324</v>
       </c>
       <c r="M11">
-        <v>0.8059749674138885</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.62549340483065</v>
+        <v>0.6397521579153249</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.253653379552475</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.182134583236689</v>
+        <v>4.3818289148453</v>
       </c>
       <c r="C12">
-        <v>0.8258542497818553</v>
+        <v>0.6083832829694984</v>
       </c>
       <c r="D12">
-        <v>0.05884350963306773</v>
+        <v>0.05858327533032792</v>
       </c>
       <c r="E12">
-        <v>0.0263365245576499</v>
+        <v>0.0425012811349319</v>
       </c>
       <c r="F12">
-        <v>3.477682555468988</v>
+        <v>0.8484496997639752</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3170637208898199</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.289650594106192</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2271079680374157</v>
+        <v>0.526378740440677</v>
       </c>
       <c r="M12">
-        <v>0.8277824907840881</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.626951446792674</v>
+        <v>0.6374486530304821</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.299943035927072</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.151998117199867</v>
+        <v>4.358137374576529</v>
       </c>
       <c r="C13">
-        <v>0.8209529203026023</v>
+        <v>0.6056235423085639</v>
       </c>
       <c r="D13">
-        <v>0.05892126801799691</v>
+        <v>0.05832310247562589</v>
       </c>
       <c r="E13">
-        <v>0.0263172354085528</v>
+        <v>0.04242503855422974</v>
       </c>
       <c r="F13">
-        <v>3.460838638971751</v>
+        <v>0.8444223655195486</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3163139109525304</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.281975343561257</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2259907918228805</v>
+        <v>0.5235505421283193</v>
       </c>
       <c r="M13">
-        <v>0.8230717722052745</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.626610529136613</v>
+        <v>0.6379358914708178</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.289929800747274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.054051713751676</v>
+        <v>4.280922799819507</v>
       </c>
       <c r="C14">
-        <v>0.805019277265842</v>
+        <v>0.5966259336643418</v>
       </c>
       <c r="D14">
-        <v>0.05917853109151139</v>
+        <v>0.05747464814945147</v>
       </c>
       <c r="E14">
-        <v>0.02625487002443361</v>
+        <v>0.04217921056169338</v>
       </c>
       <c r="F14">
-        <v>3.406188976907998</v>
+        <v>0.8313413966299521</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3139012062699038</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.257028218595892</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2223618278494683</v>
+        <v>0.514342364677745</v>
       </c>
       <c r="M14">
-        <v>0.8077628111451318</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.62560133682814</v>
+        <v>0.6395586709092314</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.257441995746262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.994308729937757</v>
+        <v>4.23366320216968</v>
       </c>
       <c r="C15">
-        <v>0.7952974327817799</v>
+        <v>0.5911164807664591</v>
       </c>
       <c r="D15">
-        <v>0.05933889064446163</v>
+        <v>0.05695496068134531</v>
       </c>
       <c r="E15">
-        <v>0.0262170747785353</v>
+        <v>0.04203077734643834</v>
       </c>
       <c r="F15">
-        <v>3.372926920539641</v>
+        <v>0.8233691418878095</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3124481141274345</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.241810152116614</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2201498307835692</v>
+        <v>0.5087135772868692</v>
       </c>
       <c r="M15">
-        <v>0.7984260413257687</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.625060775760716</v>
+        <v>0.6405784177945435</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.237669344448165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.655588540317524</v>
+        <v>3.963363433227642</v>
       </c>
       <c r="C16">
-        <v>0.7401295574973119</v>
+        <v>0.5595689241501418</v>
       </c>
       <c r="D16">
-        <v>0.06029860361048023</v>
+        <v>0.05397689098352743</v>
       </c>
       <c r="E16">
-        <v>0.0260062987078542</v>
+        <v>0.04121220763282274</v>
       </c>
       <c r="F16">
-        <v>3.185402032742132</v>
+        <v>0.7782778003935249</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3044890843858781</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.155507046070909</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2076316845435429</v>
+        <v>0.4766257908956106</v>
       </c>
       <c r="M16">
-        <v>0.7455057196109749</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.62310260755757</v>
+        <v>0.6468080439814301</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.126240428637061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.450817234951558</v>
+        <v>3.797976123041963</v>
       </c>
       <c r="C17">
-        <v>0.7067321567334659</v>
+        <v>0.5402342098370809</v>
       </c>
       <c r="D17">
-        <v>0.06092184709232384</v>
+        <v>0.05214978980827567</v>
       </c>
       <c r="E17">
-        <v>0.02588177335241904</v>
+        <v>0.04073776869250523</v>
       </c>
       <c r="F17">
-        <v>3.072940116629979</v>
+        <v>0.7511228662878864</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2999227821419765</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.103312287689292</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2000844473411263</v>
+        <v>0.4570833557404939</v>
       </c>
       <c r="M17">
-        <v>0.7135270617549523</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.622866668882097</v>
+        <v>0.650964733410774</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.059488703763549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.334063018576273</v>
+        <v>3.702994777152355</v>
       </c>
       <c r="C18">
-        <v>0.6876721185904557</v>
+        <v>0.529118912805643</v>
       </c>
       <c r="D18">
-        <v>0.06129229385542345</v>
+        <v>0.05109875856101809</v>
       </c>
       <c r="E18">
-        <v>0.02581175411407877</v>
+        <v>0.04047473938084067</v>
       </c>
       <c r="F18">
-        <v>3.009136371556423</v>
+        <v>0.7356814604928843</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2974079295283403</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.073544561439633</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1957887982773912</v>
+        <v>0.4458923082089115</v>
       </c>
       <c r="M18">
-        <v>0.6952990067016387</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.623066307918322</v>
+        <v>0.6534750742259803</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.021657655299691</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.29470029167868</v>
+        <v>3.670859349491707</v>
       </c>
       <c r="C19">
-        <v>0.6812430227196842</v>
+        <v>0.5253562883588074</v>
       </c>
       <c r="D19">
-        <v>0.0614197144134998</v>
+        <v>0.05074286803345984</v>
       </c>
       <c r="E19">
-        <v>0.02578830884300176</v>
+        <v>0.04038734389709653</v>
       </c>
       <c r="F19">
-        <v>2.98767891216437</v>
+        <v>0.7304829039810272</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2965751725132364</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.063507233176651</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1943418528978071</v>
+        <v>0.4421113851415583</v>
       </c>
       <c r="M19">
-        <v>0.6891544597251738</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.623189745395649</v>
+        <v>0.654345228260226</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.008942827448493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.472507554632045</v>
+        <v>3.815566562242395</v>
       </c>
       <c r="C20">
-        <v>0.7102715984195527</v>
+        <v>0.5422918222743363</v>
       </c>
       <c r="D20">
-        <v>0.06085424737923262</v>
+        <v>0.05234429974684218</v>
       </c>
       <c r="E20">
-        <v>0.02589485996677499</v>
+        <v>0.04078724612494788</v>
       </c>
       <c r="F20">
-        <v>3.08481922011859</v>
+        <v>0.7539949972268687</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3003972229344569</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.108841811030388</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2008831016066921</v>
+        <v>0.4591585166359806</v>
       </c>
       <c r="M20">
-        <v>0.7169138513716788</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.622856656070411</v>
+        <v>0.6505097970045526</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.066535684774578</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.082767884109558</v>
+        <v>4.30359488930327</v>
       </c>
       <c r="C21">
-        <v>0.8096913675076394</v>
+        <v>0.5992683573460909</v>
       </c>
       <c r="D21">
-        <v>0.05910238311904692</v>
+        <v>0.05772385610974595</v>
       </c>
       <c r="E21">
-        <v>0.02627310278032091</v>
+        <v>0.04225096751713942</v>
       </c>
       <c r="F21">
-        <v>3.422196216825</v>
+        <v>0.8351751597426755</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3146046885254208</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.264342573587513</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2234254611998665</v>
+        <v>0.5170446173166141</v>
       </c>
       <c r="M21">
-        <v>0.8122509175608172</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.625881466745923</v>
+        <v>0.6390766341535397</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.266957806775054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.492650870808177</v>
+        <v>4.624147590946222</v>
       </c>
       <c r="C22">
-        <v>0.8763267465141666</v>
+        <v>0.636584571731305</v>
       </c>
       <c r="D22">
-        <v>0.05807985433072815</v>
+        <v>0.06124018641607165</v>
       </c>
       <c r="E22">
-        <v>0.02653802778576253</v>
+        <v>0.04330262208314473</v>
       </c>
       <c r="F22">
-        <v>3.652017210247578</v>
+        <v>0.8900065597102724</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3249854807555153</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.368719732567683</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2386347056242926</v>
+        <v>0.5553822538551287</v>
       </c>
       <c r="M22">
-        <v>0.8763307495707622</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.631277907549489</v>
+        <v>0.6327469941359709</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.403557283392161</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.27277760907748</v>
+        <v>4.45290081176779</v>
       </c>
       <c r="C23">
-        <v>0.8405930466379914</v>
+        <v>0.6166594866290893</v>
       </c>
       <c r="D23">
-        <v>0.05861355467894924</v>
+        <v>0.05936332713265102</v>
       </c>
       <c r="E23">
-        <v>0.02639482635464852</v>
+        <v>0.04273227329650808</v>
       </c>
       <c r="F23">
-        <v>3.528426561995644</v>
+        <v>0.8605696495339856</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3193396767007783</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.312734320604974</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2304698276030734</v>
+        <v>0.5348710597651944</v>
       </c>
       <c r="M23">
-        <v>0.8419522896008544</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.628062048710817</v>
+        <v>0.6360167465118778</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.330107675865975</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.462698355219516</v>
+        <v>3.807613610203987</v>
       </c>
       <c r="C24">
-        <v>0.7086709824509967</v>
+        <v>0.5413615744897697</v>
       </c>
       <c r="D24">
-        <v>0.0608847715747487</v>
+        <v>0.05225636371015696</v>
       </c>
       <c r="E24">
-        <v>0.02588893864748965</v>
+        <v>0.04076484714364348</v>
       </c>
       <c r="F24">
-        <v>3.079446038893394</v>
+        <v>0.752695978412774</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3001823855596797</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.106341172001535</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2005218957330754</v>
+        <v>0.4582201995763313</v>
       </c>
       <c r="M24">
-        <v>0.7153821982433826</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.622860143104717</v>
+        <v>0.650715098944211</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.063348052325011</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.627256935967353</v>
+        <v>3.116960708677709</v>
       </c>
       <c r="C25">
-        <v>0.5719393906458095</v>
+        <v>0.4603372308878022</v>
       </c>
       <c r="D25">
-        <v>0.06378615461478887</v>
+        <v>0.04458452409140534</v>
       </c>
       <c r="E25">
-        <v>0.02540328390285929</v>
+        <v>0.03901574835236232</v>
       </c>
       <c r="F25">
-        <v>2.628213795270881</v>
+        <v>0.6430208461302129</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2837323320781344</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8931873350015564</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1699193681466369</v>
+        <v>0.3773888719464082</v>
       </c>
       <c r="M25">
-        <v>0.585043772422587</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.629886550595259</v>
+        <v>0.6710999325979472</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.796820879969658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.611485503766801</v>
+        <v>1.052410929767404</v>
       </c>
       <c r="C2">
-        <v>0.4006947181122484</v>
+        <v>0.1975470831512496</v>
       </c>
       <c r="D2">
-        <v>0.03892160226453711</v>
+        <v>0.0212652456121134</v>
       </c>
       <c r="E2">
-        <v>0.03801268009689984</v>
+        <v>0.08822327336750035</v>
       </c>
       <c r="F2">
-        <v>0.5670457206655328</v>
+        <v>0.6878680425175787</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2747450192646888</v>
+        <v>0.5845085108126291</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3191236248557203</v>
+        <v>0.2208726054394958</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6896262412726699</v>
+        <v>1.079996518808301</v>
       </c>
       <c r="O2">
-        <v>1.615864133733879</v>
+        <v>2.325126003310544</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.270109747873846</v>
+        <v>0.9510981902345748</v>
       </c>
       <c r="C3">
-        <v>0.3602160953514613</v>
+        <v>0.1841607495851463</v>
       </c>
       <c r="D3">
-        <v>0.03507087701395761</v>
+        <v>0.01995137572645689</v>
       </c>
       <c r="E3">
-        <v>0.03749391814335645</v>
+        <v>0.08879252124509485</v>
       </c>
       <c r="F3">
-        <v>0.5180952074261356</v>
+        <v>0.6814553148614806</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2703751783946622</v>
+        <v>0.5892430574794574</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2802626242604731</v>
+        <v>0.2112340340762842</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7042024856920577</v>
+        <v>1.087544628982769</v>
       </c>
       <c r="O3">
-        <v>1.501415875004312</v>
+        <v>2.317957044106976</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.060878189849348</v>
+        <v>0.8889802177101842</v>
       </c>
       <c r="C4">
-        <v>0.3353133980432119</v>
+        <v>0.1758770014094893</v>
       </c>
       <c r="D4">
-        <v>0.0326989690983055</v>
+        <v>0.0191383826650906</v>
       </c>
       <c r="E4">
-        <v>0.03724969136274758</v>
+        <v>0.08918658682372005</v>
       </c>
       <c r="F4">
-        <v>0.4891564558907504</v>
+        <v>0.6780108799843845</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2684708348351528</v>
+        <v>0.5925344515371727</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2566638112494388</v>
+        <v>0.2054272173410396</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7140960494859314</v>
+        <v>1.092619227828663</v>
       </c>
       <c r="O4">
-        <v>1.434771113408175</v>
+        <v>2.315197429005195</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975680737643927</v>
+        <v>0.8636904494850626</v>
       </c>
       <c r="C5">
-        <v>0.3251505393864136</v>
+        <v>0.1724852679513447</v>
       </c>
       <c r="D5">
-        <v>0.03173035351934317</v>
+        <v>0.01880552398153412</v>
       </c>
       <c r="E5">
-        <v>0.03716812663038382</v>
+        <v>0.08935837718381379</v>
       </c>
       <c r="F5">
-        <v>0.4776257702042699</v>
+        <v>0.676731101690855</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2678807655608502</v>
+        <v>0.5939722641412573</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2471065917840178</v>
+        <v>0.2030889634094706</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7183575732653225</v>
+        <v>1.094797927558623</v>
       </c>
       <c r="O5">
-        <v>1.408467425480978</v>
+        <v>2.314485336073687</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.96153697024215</v>
+        <v>0.8594925869735448</v>
       </c>
       <c r="C6">
-        <v>0.3234620384072855</v>
+        <v>0.1719211096941109</v>
       </c>
       <c r="D6">
-        <v>0.03156938813083343</v>
+        <v>0.01875015956517956</v>
       </c>
       <c r="E6">
-        <v>0.03715564706706154</v>
+        <v>0.0893875797477417</v>
       </c>
       <c r="F6">
-        <v>0.4757264060694837</v>
+        <v>0.6765260728176727</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2677937375688622</v>
+        <v>0.5942168396013159</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.24552303517045</v>
+        <v>0.2027023959846588</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7190788651296174</v>
+        <v>1.095166391931897</v>
       </c>
       <c r="O6">
-        <v>1.404149708608628</v>
+        <v>2.314391992456279</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059728955426579</v>
+        <v>0.8886390525684646</v>
       </c>
       <c r="C7">
-        <v>0.3351764014009859</v>
+        <v>0.1758313240119094</v>
       </c>
       <c r="D7">
-        <v>0.03268591447083224</v>
+        <v>0.01913389989658754</v>
       </c>
       <c r="E7">
-        <v>0.03724851956564201</v>
+        <v>0.08918885827243095</v>
       </c>
       <c r="F7">
-        <v>0.4889999120125452</v>
+        <v>0.6779931191065671</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2684621366690614</v>
+        <v>0.5925534516274453</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2565346865865905</v>
+        <v>0.2053955690621336</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.714152600963736</v>
+        <v>1.092648161925439</v>
       </c>
       <c r="O7">
-        <v>1.434412986271241</v>
+        <v>2.315186156000209</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.493683880145966</v>
+        <v>1.017460844502068</v>
       </c>
       <c r="C8">
-        <v>0.3867461724505574</v>
+        <v>0.192944961280574</v>
       </c>
       <c r="D8">
-        <v>0.03759534629924133</v>
+        <v>0.02081353636032901</v>
       </c>
       <c r="E8">
-        <v>0.03781794598233645</v>
+        <v>0.08841030716872567</v>
       </c>
       <c r="F8">
-        <v>0.5499241150505227</v>
+        <v>0.6855545383949746</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2730705841931496</v>
+        <v>0.5860611422964297</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3056660105726507</v>
+        <v>0.2175261706787239</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6944516418689091</v>
+        <v>1.082507844134021</v>
       </c>
       <c r="O8">
-        <v>1.575614108600831</v>
+        <v>2.322313030469644</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349034056316896</v>
+        <v>1.270725647458335</v>
       </c>
       <c r="C9">
-        <v>0.4876183789599509</v>
+        <v>0.225986814510037</v>
       </c>
       <c r="D9">
-        <v>0.04717042251322567</v>
+        <v>0.02405681686488492</v>
       </c>
       <c r="E9">
-        <v>0.0395583829535191</v>
+        <v>0.08723686863377011</v>
       </c>
       <c r="F9">
-        <v>0.6791609798561637</v>
+        <v>0.7043012336873602</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2887562483724651</v>
+        <v>0.5763846500694285</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4044011700060395</v>
+        <v>0.2421952227593067</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.663662698733205</v>
+        <v>1.066109642972002</v>
       </c>
       <c r="O9">
-        <v>1.884037763752673</v>
+        <v>2.349343833708389</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.982255934047771</v>
+        <v>1.457135895415547</v>
       </c>
       <c r="C10">
-        <v>0.5617759937890696</v>
+        <v>0.2499406610460824</v>
       </c>
       <c r="D10">
-        <v>0.05418536356474135</v>
+        <v>0.02640812637721979</v>
       </c>
       <c r="E10">
-        <v>0.04126770381499334</v>
+        <v>0.0865899812995341</v>
       </c>
       <c r="F10">
-        <v>0.781401047710844</v>
+        <v>0.7204758102282227</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3050255834515383</v>
+        <v>0.5711452031298734</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4788626120195261</v>
+        <v>0.2608558580578091</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6463501900286914</v>
+        <v>1.056182097808282</v>
       </c>
       <c r="O10">
-        <v>2.133935494298385</v>
+        <v>2.377203493937742</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.271883178816552</v>
+        <v>1.542000895781769</v>
       </c>
       <c r="C11">
-        <v>0.5955722511930617</v>
+        <v>0.2607667725345095</v>
       </c>
       <c r="D11">
-        <v>0.0573752672474086</v>
+        <v>0.02747080463194607</v>
       </c>
       <c r="E11">
-        <v>0.04215069913066216</v>
+        <v>0.0863424072737633</v>
       </c>
       <c r="F11">
-        <v>0.8298144906233915</v>
+        <v>0.7283582978814138</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.313621871642269</v>
+        <v>0.5691693153636237</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5132652932494324</v>
+        <v>0.2694614766759003</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6397521579153249</v>
+        <v>1.052125141489121</v>
       </c>
       <c r="O11">
-        <v>2.253653379552475</v>
+        <v>2.391624023468751</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.3818289148453</v>
+        <v>1.574145223254163</v>
       </c>
       <c r="C12">
-        <v>0.6083832829694984</v>
+        <v>0.2648560342231008</v>
       </c>
       <c r="D12">
-        <v>0.05858327533032792</v>
+        <v>0.02787219736003266</v>
       </c>
       <c r="E12">
-        <v>0.0425012811349319</v>
+        <v>0.08625536996303751</v>
       </c>
       <c r="F12">
-        <v>0.8484496997639752</v>
+        <v>0.7314187963054053</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3170637208898199</v>
+        <v>0.5684798350986071</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.526378740440677</v>
+        <v>0.2727369443702656</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6374486530304821</v>
+        <v>1.05065482403274</v>
       </c>
       <c r="O12">
-        <v>2.299943035927072</v>
+        <v>2.397336545232321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.358137374576529</v>
+        <v>1.567222047657935</v>
       </c>
       <c r="C13">
-        <v>0.6056235423085639</v>
+        <v>0.263975802092375</v>
       </c>
       <c r="D13">
-        <v>0.05832310247562589</v>
+        <v>0.02778579598800235</v>
       </c>
       <c r="E13">
-        <v>0.04242503855422974</v>
+        <v>0.08627381644092225</v>
       </c>
       <c r="F13">
-        <v>0.8444223655195486</v>
+        <v>0.7307563000046287</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3163139109525304</v>
+        <v>0.5686257120839286</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5235505421283193</v>
+        <v>0.2720307721873496</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6379358914708178</v>
+        <v>1.050968550333863</v>
       </c>
       <c r="O13">
-        <v>2.289929800747274</v>
+        <v>2.396095044594603</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.280922799819507</v>
+        <v>1.54464528249764</v>
       </c>
       <c r="C14">
-        <v>0.5966259336643418</v>
+        <v>0.2611034071505571</v>
       </c>
       <c r="D14">
-        <v>0.05747464814945147</v>
+        <v>0.02750384803007222</v>
       </c>
       <c r="E14">
-        <v>0.04217921056169338</v>
+        <v>0.08633511212024558</v>
       </c>
       <c r="F14">
-        <v>0.8313413966299521</v>
+        <v>0.7286085715924742</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3139012062699038</v>
+        <v>0.5691114132668318</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.514342364677745</v>
+        <v>0.26973061705975</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6395586709092314</v>
+        <v>1.052002855894685</v>
       </c>
       <c r="O14">
-        <v>2.257441995746262</v>
+        <v>2.392088946829745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.23366320216968</v>
+        <v>1.530817326413342</v>
       </c>
       <c r="C15">
-        <v>0.5911164807664591</v>
+        <v>0.2593426283441715</v>
       </c>
       <c r="D15">
-        <v>0.05695496068134531</v>
+        <v>0.02733101322027665</v>
       </c>
       <c r="E15">
-        <v>0.04203077734643834</v>
+        <v>0.08637353175625506</v>
       </c>
       <c r="F15">
-        <v>0.8233691418878095</v>
+        <v>0.7273028715599139</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3124481141274345</v>
+        <v>0.569416573775122</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5087135772868692</v>
+        <v>0.2683238786775206</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6405784177945435</v>
+        <v>1.052644986684975</v>
       </c>
       <c r="O15">
-        <v>2.237669344448165</v>
+        <v>2.389667902035029</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963363433227642</v>
+        <v>1.451590951338858</v>
       </c>
       <c r="C16">
-        <v>0.5595689241501418</v>
+        <v>0.2492317113707259</v>
       </c>
       <c r="D16">
-        <v>0.05397689098352743</v>
+        <v>0.02633853624698901</v>
       </c>
       <c r="E16">
-        <v>0.04121220763282274</v>
+        <v>0.08660710040027197</v>
       </c>
       <c r="F16">
-        <v>0.7782778003935249</v>
+        <v>0.7199712388881352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3044890843858781</v>
+        <v>0.5712825450967927</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4766257908956106</v>
+        <v>0.2602958033717186</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6468080439814301</v>
+        <v>1.056456463236906</v>
       </c>
       <c r="O16">
-        <v>2.126240428637061</v>
+        <v>2.376296281024509</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797976123041963</v>
+        <v>1.40300383868879</v>
       </c>
       <c r="C17">
-        <v>0.5402342098370809</v>
+        <v>0.2430107647477087</v>
       </c>
       <c r="D17">
-        <v>0.05214978980827567</v>
+        <v>0.02572788959972883</v>
       </c>
       <c r="E17">
-        <v>0.04073776869250523</v>
+        <v>0.08676234664170579</v>
       </c>
       <c r="F17">
-        <v>0.7511228662878864</v>
+        <v>0.7156079773055666</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2999227821419765</v>
+        <v>0.5725317433550643</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4570833557404939</v>
+        <v>0.2554006915598421</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.650964733410774</v>
+        <v>1.058912232329497</v>
       </c>
       <c r="O17">
-        <v>2.059488703763549</v>
+        <v>2.368541080038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702994777152355</v>
+        <v>1.375064134507511</v>
       </c>
       <c r="C18">
-        <v>0.529118912805643</v>
+        <v>0.2394260061083742</v>
       </c>
       <c r="D18">
-        <v>0.05109875856101809</v>
+        <v>0.02537600948149077</v>
       </c>
       <c r="E18">
-        <v>0.04047473938084067</v>
+        <v>0.08685603572950562</v>
       </c>
       <c r="F18">
-        <v>0.7356814604928843</v>
+        <v>0.7131477136700255</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2974079295283403</v>
+        <v>0.5732886026417603</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4458923082089115</v>
+        <v>0.2525961520363325</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6534750742259803</v>
+        <v>1.060367944823199</v>
       </c>
       <c r="O18">
-        <v>2.021657655299691</v>
+        <v>2.364244899060225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.670859349491707</v>
+        <v>1.365605367813487</v>
       </c>
       <c r="C19">
-        <v>0.5253562883588074</v>
+        <v>0.2382111349424179</v>
       </c>
       <c r="D19">
-        <v>0.05074286803345984</v>
+        <v>0.02525675755062196</v>
       </c>
       <c r="E19">
-        <v>0.04038734389709653</v>
+        <v>0.08688851223300276</v>
       </c>
       <c r="F19">
-        <v>0.7304829039810272</v>
+        <v>0.712323185693748</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2965751725132364</v>
+        <v>0.5735514452166512</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4421113851415583</v>
+        <v>0.2516484750015024</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.654345228260226</v>
+        <v>1.060868248855186</v>
       </c>
       <c r="O19">
-        <v>2.008942827448493</v>
+        <v>2.36281850571649</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815566562242395</v>
+        <v>1.408175378240173</v>
       </c>
       <c r="C20">
-        <v>0.5422918222743363</v>
+        <v>0.2436736832330837</v>
       </c>
       <c r="D20">
-        <v>0.05234429974684218</v>
+        <v>0.02579296164859102</v>
       </c>
       <c r="E20">
-        <v>0.04078724612494788</v>
+        <v>0.08674536550199718</v>
       </c>
       <c r="F20">
-        <v>0.7539949972268687</v>
+        <v>0.7160673434521101</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3003972229344569</v>
+        <v>0.5723947936203615</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4591585166359806</v>
+        <v>0.2559206468274908</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6505097970045526</v>
+        <v>1.058646338946886</v>
       </c>
       <c r="O20">
-        <v>2.066535684774578</v>
+        <v>2.36934961500242</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.30359488930327</v>
+        <v>1.551276427734877</v>
       </c>
       <c r="C21">
-        <v>0.5992683573460909</v>
+        <v>0.26194738169076</v>
       </c>
       <c r="D21">
-        <v>0.05772385610974595</v>
+        <v>0.02758669084924037</v>
       </c>
       <c r="E21">
-        <v>0.04225096751713942</v>
+        <v>0.08631692590067885</v>
       </c>
       <c r="F21">
-        <v>0.8351751597426755</v>
+        <v>0.7292373594273016</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3146046885254208</v>
+        <v>0.5689671556163063</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5170446173166141</v>
+        <v>0.2704057756757976</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6390766341535397</v>
+        <v>1.051697265486503</v>
       </c>
       <c r="O21">
-        <v>2.266957806775054</v>
+        <v>2.393258797168016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624147590946222</v>
+        <v>1.644845875201213</v>
       </c>
       <c r="C22">
-        <v>0.636584571731305</v>
+        <v>0.2738298704789202</v>
       </c>
       <c r="D22">
-        <v>0.06124018641607165</v>
+        <v>0.02875303839790178</v>
       </c>
       <c r="E22">
-        <v>0.04330262208314473</v>
+        <v>0.0860760471228339</v>
       </c>
       <c r="F22">
-        <v>0.8900065597102724</v>
+        <v>0.7382852762447527</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3249854807555153</v>
+        <v>0.5670694740965132</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5553822538551287</v>
+        <v>0.2799699824542188</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6327469941359709</v>
+        <v>1.047540108011766</v>
       </c>
       <c r="O22">
-        <v>2.403557283392161</v>
+        <v>2.410352654854023</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.45290081176779</v>
+        <v>1.594902577554763</v>
       </c>
       <c r="C23">
-        <v>0.6166594866290893</v>
+        <v>0.267493557094042</v>
       </c>
       <c r="D23">
-        <v>0.05936332713265102</v>
+        <v>0.02813108915908202</v>
       </c>
       <c r="E23">
-        <v>0.04273227329650808</v>
+        <v>0.08620102866204959</v>
       </c>
       <c r="F23">
-        <v>0.8605696495339856</v>
+        <v>0.7334158779202511</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3193396767007783</v>
+        <v>0.5680509199981287</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5348710597651944</v>
+        <v>0.2748565084738743</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6360167465118778</v>
+        <v>1.049723701026494</v>
       </c>
       <c r="O23">
-        <v>2.330107675865975</v>
+        <v>2.401094851227896</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807613610203987</v>
+        <v>1.405837344783322</v>
       </c>
       <c r="C24">
-        <v>0.5413615744897697</v>
+        <v>0.243374003482387</v>
       </c>
       <c r="D24">
-        <v>0.05225636371015696</v>
+        <v>0.02576354510036793</v>
       </c>
       <c r="E24">
-        <v>0.04076484714364348</v>
+        <v>0.08675302885771785</v>
       </c>
       <c r="F24">
-        <v>0.752695978412774</v>
+        <v>0.715859513782874</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3001823855596797</v>
+        <v>0.5724565881233445</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4582201995763313</v>
+        <v>0.2556855447523674</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.650715098944211</v>
+        <v>1.058766412723145</v>
       </c>
       <c r="O24">
-        <v>2.063348052325011</v>
+        <v>2.36898357055739</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.116960708677709</v>
+        <v>1.202147593333677</v>
       </c>
       <c r="C25">
-        <v>0.4603372308878022</v>
+        <v>0.2171042145760111</v>
       </c>
       <c r="D25">
-        <v>0.04458452409140534</v>
+        <v>0.02318490598916867</v>
       </c>
       <c r="E25">
-        <v>0.03901574835236232</v>
+        <v>0.08751650656253851</v>
       </c>
       <c r="F25">
-        <v>0.6430208461302129</v>
+        <v>0.6988089389160876</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2837323320781344</v>
+        <v>0.5786745710130354</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3773888719464082</v>
+        <v>0.2354273560705451</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6710999325979472</v>
+        <v>1.070173079762284</v>
       </c>
       <c r="O25">
-        <v>1.796820879969658</v>
+        <v>2.340629363084503</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.052410929767404</v>
+        <v>2.611485503767028</v>
       </c>
       <c r="C2">
-        <v>0.1975470831512496</v>
+        <v>0.4006947181125895</v>
       </c>
       <c r="D2">
-        <v>0.0212652456121134</v>
+        <v>0.03892160226448738</v>
       </c>
       <c r="E2">
-        <v>0.08822327336750035</v>
+        <v>0.03801268009688386</v>
       </c>
       <c r="F2">
-        <v>0.6878680425175787</v>
+        <v>0.5670457206655186</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.5845085108126291</v>
+        <v>0.2747450192646888</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2208726054394958</v>
+        <v>0.3191236248557914</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.079996518808301</v>
+        <v>0.6896262412727268</v>
       </c>
       <c r="O2">
-        <v>2.325126003310544</v>
+        <v>1.615864133733822</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9510981902345748</v>
+        <v>2.270109747873676</v>
       </c>
       <c r="C3">
-        <v>0.1841607495851463</v>
+        <v>0.3602160953513476</v>
       </c>
       <c r="D3">
-        <v>0.01995137572645689</v>
+        <v>0.03507087701413525</v>
       </c>
       <c r="E3">
-        <v>0.08879252124509485</v>
+        <v>0.03749391814335468</v>
       </c>
       <c r="F3">
-        <v>0.6814553148614806</v>
+        <v>0.5180952074261498</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.5892430574794574</v>
+        <v>0.2703751783946799</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2112340340762842</v>
+        <v>0.2802626242605726</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.087544628982769</v>
+        <v>0.7042024856920577</v>
       </c>
       <c r="O3">
-        <v>2.317957044106976</v>
+        <v>1.501415875004369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8889802177101842</v>
+        <v>2.060878189849348</v>
       </c>
       <c r="C4">
-        <v>0.1758770014094893</v>
+        <v>0.3353133980432688</v>
       </c>
       <c r="D4">
-        <v>0.0191383826650906</v>
+        <v>0.03269896909803549</v>
       </c>
       <c r="E4">
-        <v>0.08918658682372005</v>
+        <v>0.03724969136274581</v>
       </c>
       <c r="F4">
-        <v>0.6780108799843845</v>
+        <v>0.4891564558907433</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.5925344515371727</v>
+        <v>0.2684708348351634</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2054272173410396</v>
+        <v>0.2566638112494957</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.092619227828663</v>
+        <v>0.7140960494859812</v>
       </c>
       <c r="O4">
-        <v>2.315197429005195</v>
+        <v>1.434771113408289</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8636904494850626</v>
+        <v>1.975680737643899</v>
       </c>
       <c r="C5">
-        <v>0.1724852679513447</v>
+        <v>0.3251505393863994</v>
       </c>
       <c r="D5">
-        <v>0.01880552398153412</v>
+        <v>0.03173035351945686</v>
       </c>
       <c r="E5">
-        <v>0.08935837718381379</v>
+        <v>0.03716812663037317</v>
       </c>
       <c r="F5">
-        <v>0.676731101690855</v>
+        <v>0.4776257702042841</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.5939722641412573</v>
+        <v>0.2678807655608679</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2030889634094706</v>
+        <v>0.2471065917840747</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.094797927558623</v>
+        <v>0.7183575732653225</v>
       </c>
       <c r="O5">
-        <v>2.314485336073687</v>
+        <v>1.408467425480978</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8594925869735448</v>
+        <v>1.961536970242292</v>
       </c>
       <c r="C6">
-        <v>0.1719211096941109</v>
+        <v>0.3234620384070865</v>
       </c>
       <c r="D6">
-        <v>0.01875015956517956</v>
+        <v>0.0315693881309258</v>
       </c>
       <c r="E6">
-        <v>0.0893875797477417</v>
+        <v>0.03715564706703489</v>
       </c>
       <c r="F6">
-        <v>0.6765260728176727</v>
+        <v>0.4757264060694695</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.5942168396013159</v>
+        <v>0.2677937375688622</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2027023959846588</v>
+        <v>0.24552303517045</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.095166391931897</v>
+        <v>0.7190788651296032</v>
       </c>
       <c r="O6">
-        <v>2.314391992456279</v>
+        <v>1.404149708608628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8886390525684646</v>
+        <v>2.059728955426465</v>
       </c>
       <c r="C7">
-        <v>0.1758313240119094</v>
+        <v>0.3351764014012986</v>
       </c>
       <c r="D7">
-        <v>0.01913389989658754</v>
+        <v>0.03268591447071856</v>
       </c>
       <c r="E7">
-        <v>0.08918885827243095</v>
+        <v>0.0372485195655976</v>
       </c>
       <c r="F7">
-        <v>0.6779931191065671</v>
+        <v>0.4889999120125594</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.5925534516274453</v>
+        <v>0.2684621366690649</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2053955690621336</v>
+        <v>0.2565346865866616</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.092648161925439</v>
+        <v>0.714152600963736</v>
       </c>
       <c r="O7">
-        <v>2.315186156000209</v>
+        <v>1.434412986271326</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.017460844502068</v>
+        <v>2.493683880145966</v>
       </c>
       <c r="C8">
-        <v>0.192944961280574</v>
+        <v>0.3867461724503016</v>
       </c>
       <c r="D8">
-        <v>0.02081353636032901</v>
+        <v>0.03759534629943317</v>
       </c>
       <c r="E8">
-        <v>0.08841030716872567</v>
+        <v>0.03781794598232047</v>
       </c>
       <c r="F8">
-        <v>0.6855545383949746</v>
+        <v>0.549924115050537</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.5860611422964297</v>
+        <v>0.2730705841931567</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2175261706787239</v>
+        <v>0.305666010572665</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.082507844134021</v>
+        <v>0.6944516418689801</v>
       </c>
       <c r="O8">
-        <v>2.322313030469644</v>
+        <v>1.575614108600917</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.270725647458335</v>
+        <v>3.349034056317009</v>
       </c>
       <c r="C9">
-        <v>0.225986814510037</v>
+        <v>0.4876183789600361</v>
       </c>
       <c r="D9">
-        <v>0.02405681686488492</v>
+        <v>0.04717042251328962</v>
       </c>
       <c r="E9">
-        <v>0.08723686863377011</v>
+        <v>0.03955838295353864</v>
       </c>
       <c r="F9">
-        <v>0.7043012336873602</v>
+        <v>0.6791609798561637</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.5763846500694285</v>
+        <v>0.2887562483724473</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2421952227593067</v>
+        <v>0.4044011700061532</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.066109642972002</v>
+        <v>0.6636626987332122</v>
       </c>
       <c r="O9">
-        <v>2.349343833708389</v>
+        <v>1.884037763752673</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.457135895415547</v>
+        <v>3.982255934047885</v>
       </c>
       <c r="C10">
-        <v>0.2499406610460824</v>
+        <v>0.5617759937891549</v>
       </c>
       <c r="D10">
-        <v>0.02640812637721979</v>
+        <v>0.05418536356485504</v>
       </c>
       <c r="E10">
-        <v>0.0865899812995341</v>
+        <v>0.04126770381498446</v>
       </c>
       <c r="F10">
-        <v>0.7204758102282227</v>
+        <v>0.781401047710844</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.5711452031298734</v>
+        <v>0.3050255834515312</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2608558580578091</v>
+        <v>0.4788626120195403</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.056182097808282</v>
+        <v>0.6463501900286914</v>
       </c>
       <c r="O10">
-        <v>2.377203493937742</v>
+        <v>2.133935494298328</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.542000895781769</v>
+        <v>4.271883178816495</v>
       </c>
       <c r="C11">
-        <v>0.2607667725345095</v>
+        <v>0.5955722511930617</v>
       </c>
       <c r="D11">
-        <v>0.02747080463194607</v>
+        <v>0.05737526724738728</v>
       </c>
       <c r="E11">
-        <v>0.0863424072737633</v>
+        <v>0.0421506991306746</v>
       </c>
       <c r="F11">
-        <v>0.7283582978814138</v>
+        <v>0.8298144906234057</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.5691693153636237</v>
+        <v>0.313621871642269</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2694614766759003</v>
+        <v>0.513265293249475</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.052125141489121</v>
+        <v>0.6397521579152468</v>
       </c>
       <c r="O11">
-        <v>2.391624023468751</v>
+        <v>2.253653379552475</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.574145223254163</v>
+        <v>4.3818289148453</v>
       </c>
       <c r="C12">
-        <v>0.2648560342231008</v>
+        <v>0.6083832829694131</v>
       </c>
       <c r="D12">
-        <v>0.02787219736003266</v>
+        <v>0.05858327533031371</v>
       </c>
       <c r="E12">
-        <v>0.08625536996303751</v>
+        <v>0.04250128113494434</v>
       </c>
       <c r="F12">
-        <v>0.7314187963054053</v>
+        <v>0.848449699763961</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.5684798350986071</v>
+        <v>0.317063720889827</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2727369443702656</v>
+        <v>0.526378740440606</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.05065482403274</v>
+        <v>0.6374486530304893</v>
       </c>
       <c r="O12">
-        <v>2.397336545232321</v>
+        <v>2.299943035927129</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.567222047657935</v>
+        <v>4.358137374576529</v>
       </c>
       <c r="C13">
-        <v>0.263975802092375</v>
+        <v>0.605623542308706</v>
       </c>
       <c r="D13">
-        <v>0.02778579598800235</v>
+        <v>0.05832310247568984</v>
       </c>
       <c r="E13">
-        <v>0.08627381644092225</v>
+        <v>0.04242503855422974</v>
       </c>
       <c r="F13">
-        <v>0.7307563000046287</v>
+        <v>0.8444223655195486</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.5686257120839286</v>
+        <v>0.3163139109525233</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2720307721873496</v>
+        <v>0.523550542128234</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.050968550333863</v>
+        <v>0.6379358914707609</v>
       </c>
       <c r="O13">
-        <v>2.396095044594603</v>
+        <v>2.289929800747217</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.54464528249764</v>
+        <v>4.280922799819507</v>
       </c>
       <c r="C14">
-        <v>0.2611034071505571</v>
+        <v>0.5966259336641997</v>
       </c>
       <c r="D14">
-        <v>0.02750384803007222</v>
+        <v>0.05747464814934489</v>
       </c>
       <c r="E14">
-        <v>0.08633511212024558</v>
+        <v>0.04217921056170759</v>
       </c>
       <c r="F14">
-        <v>0.7286085715924742</v>
+        <v>0.8313413966299521</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.5691114132668318</v>
+        <v>0.3139012062699038</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.26973061705975</v>
+        <v>0.514342364677816</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.052002855894685</v>
+        <v>0.6395586709092242</v>
       </c>
       <c r="O14">
-        <v>2.392088946829745</v>
+        <v>2.257441995746234</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.530817326413342</v>
+        <v>4.233663202169794</v>
       </c>
       <c r="C15">
-        <v>0.2593426283441715</v>
+        <v>0.5911164807666296</v>
       </c>
       <c r="D15">
-        <v>0.02733101322027665</v>
+        <v>0.05695496068161532</v>
       </c>
       <c r="E15">
-        <v>0.08637353175625506</v>
+        <v>0.04203077734644545</v>
       </c>
       <c r="F15">
-        <v>0.7273028715599139</v>
+        <v>0.8233691418878095</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.569416573775122</v>
+        <v>0.3124481141274416</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2683238786775206</v>
+        <v>0.508713577286855</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.052644986684975</v>
+        <v>0.6405784177945364</v>
       </c>
       <c r="O15">
-        <v>2.389667902035029</v>
+        <v>2.237669344448165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.451590951338858</v>
+        <v>3.963363433227528</v>
       </c>
       <c r="C16">
-        <v>0.2492317113707259</v>
+        <v>0.5595689241499144</v>
       </c>
       <c r="D16">
-        <v>0.02633853624698901</v>
+        <v>0.05397689098353453</v>
       </c>
       <c r="E16">
-        <v>0.08660710040027197</v>
+        <v>0.04121220763282096</v>
       </c>
       <c r="F16">
-        <v>0.7199712388881352</v>
+        <v>0.7782778003935249</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.5712825450967927</v>
+        <v>0.3044890843858994</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2602958033717186</v>
+        <v>0.4766257908955396</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.056456463236906</v>
+        <v>0.6468080439814372</v>
       </c>
       <c r="O16">
-        <v>2.376296281024509</v>
+        <v>2.126240428636976</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.40300383868879</v>
+        <v>3.797976123041678</v>
       </c>
       <c r="C17">
-        <v>0.2430107647477087</v>
+        <v>0.5402342098369672</v>
       </c>
       <c r="D17">
-        <v>0.02572788959972883</v>
+        <v>0.05214978980816198</v>
       </c>
       <c r="E17">
-        <v>0.08676234664170579</v>
+        <v>0.04073776869250878</v>
       </c>
       <c r="F17">
-        <v>0.7156079773055666</v>
+        <v>0.7511228662879006</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.5725317433550643</v>
+        <v>0.2999227821419836</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2554006915598421</v>
+        <v>0.4570833557403802</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.058912232329497</v>
+        <v>0.6509647334108308</v>
       </c>
       <c r="O17">
-        <v>2.368541080038</v>
+        <v>2.059488703763662</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.375064134507511</v>
+        <v>3.702994777152298</v>
       </c>
       <c r="C18">
-        <v>0.2394260061083742</v>
+        <v>0.5291189128056146</v>
       </c>
       <c r="D18">
-        <v>0.02537600948149077</v>
+        <v>0.05109875856101809</v>
       </c>
       <c r="E18">
-        <v>0.08685603572950562</v>
+        <v>0.04047473938084245</v>
       </c>
       <c r="F18">
-        <v>0.7131477136700255</v>
+        <v>0.7356814604928843</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.5732886026417603</v>
+        <v>0.2974079295283403</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2525961520363325</v>
+        <v>0.4458923082089399</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.060367944823199</v>
+        <v>0.65347507422603</v>
       </c>
       <c r="O18">
-        <v>2.364244899060225</v>
+        <v>2.021657655299691</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.365605367813487</v>
+        <v>3.670859349491593</v>
       </c>
       <c r="C19">
-        <v>0.2382111349424179</v>
+        <v>0.5253562883588927</v>
       </c>
       <c r="D19">
-        <v>0.02525675755062196</v>
+        <v>0.05074286803357353</v>
       </c>
       <c r="E19">
-        <v>0.08688851223300276</v>
+        <v>0.04038734389709475</v>
       </c>
       <c r="F19">
-        <v>0.712323185693748</v>
+        <v>0.7304829039810272</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.5735514452166512</v>
+        <v>0.2965751725132506</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2516484750015024</v>
+        <v>0.4421113851415441</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.060868248855186</v>
+        <v>0.6543452282601621</v>
       </c>
       <c r="O19">
-        <v>2.36281850571649</v>
+        <v>2.008942827448493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.408175378240173</v>
+        <v>3.815566562242509</v>
       </c>
       <c r="C20">
-        <v>0.2436736832330837</v>
+        <v>0.5422918222743078</v>
       </c>
       <c r="D20">
-        <v>0.02579296164859102</v>
+        <v>0.05234429974665744</v>
       </c>
       <c r="E20">
-        <v>0.08674536550199718</v>
+        <v>0.04078724612496032</v>
       </c>
       <c r="F20">
-        <v>0.7160673434521101</v>
+        <v>0.7539949972268829</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.5723947936203615</v>
+        <v>0.3003972229344782</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2559206468274908</v>
+        <v>0.4591585166360233</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.058646338946886</v>
+        <v>0.6505097970045455</v>
       </c>
       <c r="O20">
-        <v>2.36934961500242</v>
+        <v>2.066535684774607</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551276427734877</v>
+        <v>4.30359488930327</v>
       </c>
       <c r="C21">
-        <v>0.26194738169076</v>
+        <v>0.5992683573460624</v>
       </c>
       <c r="D21">
-        <v>0.02758669084924037</v>
+        <v>0.05772385610975306</v>
       </c>
       <c r="E21">
-        <v>0.08631692590067885</v>
+        <v>0.04225096751715007</v>
       </c>
       <c r="F21">
-        <v>0.7292373594273016</v>
+        <v>0.8351751597426897</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.5689671556163063</v>
+        <v>0.3146046885254279</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2704057756757976</v>
+        <v>0.5170446173165573</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.051697265486503</v>
+        <v>0.6390766341535326</v>
       </c>
       <c r="O21">
-        <v>2.393258797168016</v>
+        <v>2.266957806774997</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.644845875201213</v>
+        <v>4.624147590946336</v>
       </c>
       <c r="C22">
-        <v>0.2738298704789202</v>
+        <v>0.6365845717312197</v>
       </c>
       <c r="D22">
-        <v>0.02875303839790178</v>
+        <v>0.06124018641578033</v>
       </c>
       <c r="E22">
-        <v>0.0860760471228339</v>
+        <v>0.04330262208314473</v>
       </c>
       <c r="F22">
-        <v>0.7382852762447527</v>
+        <v>0.8900065597102866</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.5670694740965132</v>
+        <v>0.3249854807555081</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2799699824542188</v>
+        <v>0.5553822538551714</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.047540108011766</v>
+        <v>0.6327469941359638</v>
       </c>
       <c r="O22">
-        <v>2.410352654854023</v>
+        <v>2.403557283392217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.594902577554763</v>
+        <v>4.45290081176779</v>
       </c>
       <c r="C23">
-        <v>0.267493557094042</v>
+        <v>0.6166594866292314</v>
       </c>
       <c r="D23">
-        <v>0.02813108915908202</v>
+        <v>0.05936332713276471</v>
       </c>
       <c r="E23">
-        <v>0.08620102866204959</v>
+        <v>0.04273227329650808</v>
       </c>
       <c r="F23">
-        <v>0.7334158779202511</v>
+        <v>0.8605696495339856</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.5680509199981287</v>
+        <v>0.3193396767007997</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2748565084738743</v>
+        <v>0.5348710597652229</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.049723701026494</v>
+        <v>0.6360167465119417</v>
       </c>
       <c r="O23">
-        <v>2.401094851227896</v>
+        <v>2.330107675865889</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.405837344783322</v>
+        <v>3.807613610203703</v>
       </c>
       <c r="C24">
-        <v>0.243374003482387</v>
+        <v>0.541361574489656</v>
       </c>
       <c r="D24">
-        <v>0.02576354510036793</v>
+        <v>0.0522563637102138</v>
       </c>
       <c r="E24">
-        <v>0.08675302885771785</v>
+        <v>0.0407648471436417</v>
       </c>
       <c r="F24">
-        <v>0.715859513782874</v>
+        <v>0.752695978412774</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.5724565881233445</v>
+        <v>0.300182385559701</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2556855447523674</v>
+        <v>0.4582201995763171</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.058766412723145</v>
+        <v>0.650715098944211</v>
       </c>
       <c r="O24">
-        <v>2.36898357055739</v>
+        <v>2.063348052324926</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.202147593333677</v>
+        <v>3.116960708677709</v>
       </c>
       <c r="C25">
-        <v>0.2171042145760111</v>
+        <v>0.4603372308877454</v>
       </c>
       <c r="D25">
-        <v>0.02318490598916867</v>
+        <v>0.04458452409162561</v>
       </c>
       <c r="E25">
-        <v>0.08751650656253851</v>
+        <v>0.03901574835237298</v>
       </c>
       <c r="F25">
-        <v>0.6988089389160876</v>
+        <v>0.6430208461302129</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.5786745710130354</v>
+        <v>0.2837323320781309</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2354273560705451</v>
+        <v>0.3773888719463372</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.070173079762284</v>
+        <v>0.671099932597933</v>
       </c>
       <c r="O25">
-        <v>2.340629363084503</v>
+        <v>1.796820879969744</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.611485503767028</v>
+        <v>1.228745428855404</v>
       </c>
       <c r="C2">
-        <v>0.4006947181125895</v>
+        <v>0.1776086991883972</v>
       </c>
       <c r="D2">
-        <v>0.03892160226448738</v>
+        <v>0.07103654660514458</v>
       </c>
       <c r="E2">
-        <v>0.03801268009688386</v>
+        <v>0.02182436195274029</v>
       </c>
       <c r="F2">
-        <v>0.5670457206655186</v>
+        <v>1.452071078869949</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.01416227925588109</v>
       </c>
       <c r="I2">
-        <v>0.2747450192646888</v>
+        <v>0.0174581729781913</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.00221327850258</v>
       </c>
       <c r="L2">
-        <v>0.3191236248557914</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.271431567924424</v>
       </c>
       <c r="N2">
-        <v>0.6896262412727268</v>
+        <v>0.1636612323807753</v>
       </c>
       <c r="O2">
-        <v>1.615864133733822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2578399683337906</v>
+      </c>
+      <c r="P2">
+        <v>1.682641840826804</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.270109747873676</v>
+        <v>1.074341774059235</v>
       </c>
       <c r="C3">
-        <v>0.3602160953513476</v>
+        <v>0.1528419846713973</v>
       </c>
       <c r="D3">
-        <v>0.03507087701413525</v>
+        <v>0.06985187569647344</v>
       </c>
       <c r="E3">
-        <v>0.03749391814335468</v>
+        <v>0.01934551119929573</v>
       </c>
       <c r="F3">
-        <v>0.5180952074261498</v>
+        <v>1.358777633238887</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.01797534080865659</v>
+      </c>
+      <c r="I3">
+        <v>0.0220838347575234</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.2703751783946799</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9576619622497518</v>
       </c>
       <c r="L3">
-        <v>0.2802626242605726</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.107512749222707</v>
       </c>
       <c r="N3">
-        <v>0.7042024856920577</v>
+        <v>0.1443395816194482</v>
       </c>
       <c r="O3">
-        <v>1.501415875004369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2261045681277771</v>
+      </c>
+      <c r="P3">
+        <v>1.6873583026156</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.060878189849348</v>
+        <v>0.9794120162187596</v>
       </c>
       <c r="C4">
-        <v>0.3353133980432688</v>
+        <v>0.1379474329863797</v>
       </c>
       <c r="D4">
-        <v>0.03269896909803549</v>
+        <v>0.06908438166161446</v>
       </c>
       <c r="E4">
-        <v>0.03724969136274581</v>
+        <v>0.01783941937639888</v>
       </c>
       <c r="F4">
-        <v>0.4891564558907433</v>
+        <v>1.302036560244858</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.0206338352206008</v>
+      </c>
+      <c r="I4">
+        <v>0.02534262968160395</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.2684708348351634</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9303650504287049</v>
       </c>
       <c r="L4">
-        <v>0.2566638112494957</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.007171222830721</v>
       </c>
       <c r="N4">
-        <v>0.7140960494859812</v>
+        <v>0.1325065762936291</v>
       </c>
       <c r="O4">
-        <v>1.434771113408289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2066077871868259</v>
+      </c>
+      <c r="P4">
+        <v>1.690352888225341</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975680737643899</v>
+        <v>0.9397031571991192</v>
       </c>
       <c r="C5">
-        <v>0.3251505393863994</v>
+        <v>0.1321765013233858</v>
       </c>
       <c r="D5">
-        <v>0.03173035351945686</v>
+        <v>0.06876794210403858</v>
       </c>
       <c r="E5">
-        <v>0.03716812663037317</v>
+        <v>0.0172156410699511</v>
       </c>
       <c r="F5">
-        <v>0.4776257702042841</v>
+        <v>1.277687814430507</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.02180304345394568</v>
+      </c>
+      <c r="I5">
+        <v>0.02687267642686342</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.2678807655608679</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9181593930936529</v>
       </c>
       <c r="L5">
-        <v>0.2471065917840747</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9659084701117706</v>
       </c>
       <c r="N5">
-        <v>0.7183575732653225</v>
+        <v>0.1277393328849499</v>
       </c>
       <c r="O5">
-        <v>1.408467425480978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1985403066582343</v>
+      </c>
+      <c r="P5">
+        <v>1.690297522279877</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961536970242292</v>
+        <v>0.931903288452105</v>
       </c>
       <c r="C6">
-        <v>0.3234620384070865</v>
+        <v>0.131502037316352</v>
       </c>
       <c r="D6">
-        <v>0.0315693881309258</v>
+        <v>0.06872296639391706</v>
       </c>
       <c r="E6">
-        <v>0.03715564706703489</v>
+        <v>0.01709640900261444</v>
       </c>
       <c r="F6">
-        <v>0.4757264060694695</v>
+        <v>1.272002150156794</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.02201282510765801</v>
+      </c>
+      <c r="I6">
+        <v>0.02726304319600725</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.2677937375688622</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9147986308326139</v>
       </c>
       <c r="L6">
-        <v>0.24552303517045</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9585295510365768</v>
       </c>
       <c r="N6">
-        <v>0.7190788651296032</v>
+        <v>0.1270083313543253</v>
       </c>
       <c r="O6">
-        <v>1.404149708608628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1970564982459244</v>
+      </c>
+      <c r="P6">
+        <v>1.688706086423551</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059728955426465</v>
+        <v>0.9755771320257338</v>
       </c>
       <c r="C7">
-        <v>0.3351764014012986</v>
+        <v>0.1386345893453438</v>
       </c>
       <c r="D7">
-        <v>0.03268591447071856</v>
+        <v>0.06910355385094746</v>
       </c>
       <c r="E7">
-        <v>0.0372485195655976</v>
+        <v>0.01778765395170634</v>
       </c>
       <c r="F7">
-        <v>0.4889999120125594</v>
+        <v>1.297199276379445</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.02067809131746567</v>
+      </c>
+      <c r="I7">
+        <v>0.02569953028289529</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.2684621366690649</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9265542011404122</v>
       </c>
       <c r="L7">
-        <v>0.2565346865866616</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.005159304223866</v>
       </c>
       <c r="N7">
-        <v>0.714152600963736</v>
+        <v>0.1326075163662921</v>
       </c>
       <c r="O7">
-        <v>1.434412986271326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.206104746333704</v>
+      </c>
+      <c r="P7">
+        <v>1.686042401088315</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.493683880145966</v>
+        <v>1.171110439202323</v>
       </c>
       <c r="C8">
-        <v>0.3867461724503016</v>
+        <v>0.1700188072119744</v>
       </c>
       <c r="D8">
-        <v>0.03759534629943317</v>
+        <v>0.07067291486506022</v>
       </c>
       <c r="E8">
-        <v>0.03781794598232047</v>
+        <v>0.02090742937666956</v>
       </c>
       <c r="F8">
-        <v>0.549924115050537</v>
+        <v>1.413808931362041</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.01544085748484414</v>
+      </c>
+      <c r="I8">
+        <v>0.0193628517196478</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.2730705841931567</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.982012945124616</v>
       </c>
       <c r="L8">
-        <v>0.305666010572665</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.212885497924304</v>
       </c>
       <c r="N8">
-        <v>0.6944516418689801</v>
+        <v>0.1572124788866986</v>
       </c>
       <c r="O8">
-        <v>1.575614108600917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2463711157290476</v>
+      </c>
+      <c r="P8">
+        <v>1.678620010244998</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349034056317009</v>
+        <v>1.56000812842251</v>
       </c>
       <c r="C9">
-        <v>0.4876183789600361</v>
+        <v>0.2330432430933485</v>
       </c>
       <c r="D9">
-        <v>0.04717042251328962</v>
+        <v>0.0733815662456454</v>
       </c>
       <c r="E9">
-        <v>0.03955838295353864</v>
+        <v>0.02728428865545673</v>
       </c>
       <c r="F9">
-        <v>0.6791609798561637</v>
+        <v>1.655515132300792</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.007790487906143007</v>
+      </c>
+      <c r="I9">
+        <v>0.009939331088825831</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.2887562483724473</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.097977216184503</v>
       </c>
       <c r="L9">
-        <v>0.4044011700061532</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.626104237235069</v>
       </c>
       <c r="N9">
-        <v>0.6636626987332122</v>
+        <v>0.2055066831862433</v>
       </c>
       <c r="O9">
-        <v>1.884037763752673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3260624653919351</v>
+      </c>
+      <c r="P9">
+        <v>1.672580469955363</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.982255934047885</v>
+        <v>1.831806017226654</v>
       </c>
       <c r="C10">
-        <v>0.5617759937891549</v>
+        <v>0.2837460628620647</v>
       </c>
       <c r="D10">
-        <v>0.05418536356485504</v>
+        <v>0.07541923422289898</v>
       </c>
       <c r="E10">
-        <v>0.04126770381498446</v>
+        <v>0.03067773517887495</v>
       </c>
       <c r="F10">
-        <v>0.781401047710844</v>
+        <v>1.812701890120778</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.00436432736768344</v>
+      </c>
+      <c r="I10">
+        <v>0.005664748243178863</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.3050255834515312</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.165445811560964</v>
       </c>
       <c r="L10">
-        <v>0.4788626120195403</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.924507429013829</v>
       </c>
       <c r="N10">
-        <v>0.6463501900286914</v>
+        <v>0.2295936034723525</v>
       </c>
       <c r="O10">
-        <v>2.133935494298328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3767515395145509</v>
+      </c>
+      <c r="P10">
+        <v>1.64706780978517</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.271883178816495</v>
+        <v>1.840047474694188</v>
       </c>
       <c r="C11">
-        <v>0.5955722511930617</v>
+        <v>0.3241569797600903</v>
       </c>
       <c r="D11">
-        <v>0.05737526724738728</v>
+        <v>0.07950197678499649</v>
       </c>
       <c r="E11">
-        <v>0.0421506991306746</v>
+        <v>0.02413445244710166</v>
       </c>
       <c r="F11">
-        <v>0.8298144906234057</v>
+        <v>1.688651431280164</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02287794435606116</v>
+      </c>
+      <c r="I11">
+        <v>0.005369188569838812</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.313621871642269</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.050145731028927</v>
       </c>
       <c r="L11">
-        <v>0.513265293249475</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.99191770053298</v>
       </c>
       <c r="N11">
-        <v>0.6397521579152468</v>
+        <v>0.1497591010971533</v>
       </c>
       <c r="O11">
-        <v>2.253653379552475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3332758286219502</v>
+      </c>
+      <c r="P11">
+        <v>1.470092385773</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.3818289148453</v>
+        <v>1.793986011570865</v>
       </c>
       <c r="C12">
-        <v>0.6083832829694131</v>
+        <v>0.3469492111134116</v>
       </c>
       <c r="D12">
-        <v>0.05858327533031371</v>
+        <v>0.08391886145501815</v>
       </c>
       <c r="E12">
-        <v>0.04250128113494434</v>
+        <v>0.024115564746924</v>
       </c>
       <c r="F12">
-        <v>0.848449699763961</v>
+        <v>1.560521708314155</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06184128224491303</v>
+      </c>
+      <c r="I12">
+        <v>0.005300259360839554</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.317063720889827</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9491344362059806</v>
       </c>
       <c r="L12">
-        <v>0.526378740440606</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.986756358423804</v>
       </c>
       <c r="N12">
-        <v>0.6374486530304893</v>
+        <v>0.0929143596054729</v>
       </c>
       <c r="O12">
-        <v>2.299943035927129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2890557321917058</v>
+      </c>
+      <c r="P12">
+        <v>1.347481712344795</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.358137374576529</v>
+        <v>1.698495839089787</v>
       </c>
       <c r="C13">
-        <v>0.605623542308706</v>
+        <v>0.3583577928933721</v>
       </c>
       <c r="D13">
-        <v>0.05832310247568984</v>
+        <v>0.08879064750385623</v>
       </c>
       <c r="E13">
-        <v>0.04242503855422974</v>
+        <v>0.02890056292304521</v>
       </c>
       <c r="F13">
-        <v>0.8444223655195486</v>
+        <v>1.414851139023725</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1182377238574759</v>
+      </c>
+      <c r="I13">
+        <v>0.005810745883517932</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.3163139109525233</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8477133652753608</v>
       </c>
       <c r="L13">
-        <v>0.523550542128234</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.922916237063475</v>
       </c>
       <c r="N13">
-        <v>0.6379358914707609</v>
+        <v>0.05092496957627191</v>
       </c>
       <c r="O13">
-        <v>2.289929800747217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2414132861563125</v>
+      </c>
+      <c r="P13">
+        <v>1.252315189399219</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.280922799819507</v>
+        <v>1.608912247509721</v>
       </c>
       <c r="C14">
-        <v>0.5966259336641997</v>
+        <v>0.3614775901281746</v>
       </c>
       <c r="D14">
-        <v>0.05747464814934489</v>
+        <v>0.09257238554389602</v>
       </c>
       <c r="E14">
-        <v>0.04217921056170759</v>
+        <v>0.03517389357523015</v>
       </c>
       <c r="F14">
-        <v>0.8313413966299521</v>
+        <v>1.305054818743898</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1682097687640294</v>
+      </c>
+      <c r="I14">
+        <v>0.006566146677677409</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.3139012062699038</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.776875313930752</v>
       </c>
       <c r="L14">
-        <v>0.514342364677816</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.851538415837609</v>
       </c>
       <c r="N14">
-        <v>0.6395586709092242</v>
+        <v>0.03061680838778713</v>
       </c>
       <c r="O14">
-        <v>2.257441995746234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2071232912928345</v>
+      </c>
+      <c r="P14">
+        <v>1.199404492634876</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.233663202169794</v>
+        <v>1.575614815075227</v>
       </c>
       <c r="C15">
-        <v>0.5911164807666296</v>
+        <v>0.3600518352556605</v>
       </c>
       <c r="D15">
-        <v>0.05695496068161532</v>
+        <v>0.09345553185340094</v>
       </c>
       <c r="E15">
-        <v>0.04203077734644545</v>
+        <v>0.03691178807918938</v>
       </c>
       <c r="F15">
-        <v>0.8233691418878095</v>
+        <v>1.272973205161193</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1810091326338039</v>
+      </c>
+      <c r="I15">
+        <v>0.007040347533838087</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.3124481141274416</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7579906366923765</v>
       </c>
       <c r="L15">
-        <v>0.508713577286855</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.821344932522976</v>
       </c>
       <c r="N15">
-        <v>0.6405784177945364</v>
+        <v>0.02682562191283644</v>
       </c>
       <c r="O15">
-        <v>2.237669344448165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1976914223726496</v>
+      </c>
+      <c r="P15">
+        <v>1.189602975128864</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963363433227528</v>
+        <v>1.47846360887138</v>
       </c>
       <c r="C16">
-        <v>0.5595689241499144</v>
+        <v>0.3355143234674927</v>
       </c>
       <c r="D16">
-        <v>0.05397689098353453</v>
+        <v>0.09137193615280381</v>
       </c>
       <c r="E16">
-        <v>0.04121220763282096</v>
+        <v>0.03430273640558745</v>
       </c>
       <c r="F16">
-        <v>0.7782778003935249</v>
+        <v>1.234258333184442</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1697516458916652</v>
+      </c>
+      <c r="I16">
+        <v>0.008846411035854373</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.3044890843858994</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7491206713596696</v>
       </c>
       <c r="L16">
-        <v>0.4766257908955396</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.705783796832975</v>
       </c>
       <c r="N16">
-        <v>0.6468080439814372</v>
+        <v>0.02649144153547311</v>
       </c>
       <c r="O16">
-        <v>2.126240428636976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1868646395716667</v>
+      </c>
+      <c r="P16">
+        <v>1.216942675255837</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797976123041678</v>
+        <v>1.451131832014482</v>
       </c>
       <c r="C17">
-        <v>0.5402342098369672</v>
+        <v>0.3152016988909168</v>
       </c>
       <c r="D17">
-        <v>0.05214978980816198</v>
+        <v>0.08769357289351376</v>
       </c>
       <c r="E17">
-        <v>0.04073776869250878</v>
+        <v>0.02845399072733734</v>
       </c>
       <c r="F17">
-        <v>0.7511228662879006</v>
+        <v>1.262207537256458</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.13279825613958</v>
+      </c>
+      <c r="I17">
+        <v>0.009889241765184131</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.2999227821419836</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7791204726280725</v>
       </c>
       <c r="L17">
-        <v>0.4570833557403802</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.655121163350429</v>
       </c>
       <c r="N17">
-        <v>0.6509647334108308</v>
+        <v>0.03537228580098528</v>
       </c>
       <c r="O17">
-        <v>2.059488703763662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1962478293543164</v>
+      </c>
+      <c r="P17">
+        <v>1.264802120640368</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702994777152298</v>
+        <v>1.483245991289095</v>
       </c>
       <c r="C18">
-        <v>0.5291189128056146</v>
+        <v>0.295600721898353</v>
       </c>
       <c r="D18">
-        <v>0.05109875856101809</v>
+        <v>0.08277326188945722</v>
       </c>
       <c r="E18">
-        <v>0.04047473938084245</v>
+        <v>0.02206859670997474</v>
       </c>
       <c r="F18">
-        <v>0.7356814604928843</v>
+        <v>1.355782547931838</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.0800626684022987</v>
+      </c>
+      <c r="I18">
+        <v>0.009885763531143787</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.2974079295283403</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8512103519416598</v>
       </c>
       <c r="L18">
-        <v>0.4458923082089399</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.655071021792281</v>
       </c>
       <c r="N18">
-        <v>0.65347507422603</v>
+        <v>0.06104606587586758</v>
       </c>
       <c r="O18">
-        <v>2.021657655299691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2258290559636436</v>
+      </c>
+      <c r="P18">
+        <v>1.345589760756326</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.670859349491593</v>
+        <v>1.555289729491847</v>
       </c>
       <c r="C19">
-        <v>0.5253562883588927</v>
+        <v>0.2799779566598488</v>
       </c>
       <c r="D19">
-        <v>0.05074286803357353</v>
+        <v>0.07844267235671865</v>
       </c>
       <c r="E19">
-        <v>0.04038734389709475</v>
+        <v>0.02007774278953761</v>
       </c>
       <c r="F19">
-        <v>0.7304829039810272</v>
+        <v>1.491829396491994</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03407509865490255</v>
+      </c>
+      <c r="I19">
+        <v>0.009589079850843341</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.2965751725132506</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9511897986031244</v>
       </c>
       <c r="L19">
-        <v>0.4421113851415441</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.692724469604286</v>
       </c>
       <c r="N19">
-        <v>0.6543452282601621</v>
+        <v>0.1105045086965646</v>
       </c>
       <c r="O19">
-        <v>2.008942827448493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2714290899705603</v>
+      </c>
+      <c r="P19">
+        <v>1.453640096838349</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815566562242509</v>
+        <v>1.749242498680559</v>
       </c>
       <c r="C20">
-        <v>0.5422918222743078</v>
+        <v>0.2727728079493659</v>
       </c>
       <c r="D20">
-        <v>0.05234429974665744</v>
+        <v>0.07503225312162343</v>
       </c>
       <c r="E20">
-        <v>0.04078724612496032</v>
+        <v>0.02956716034061557</v>
       </c>
       <c r="F20">
-        <v>0.7539949972268829</v>
+        <v>1.756153708638692</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.005171595437275744</v>
+      </c>
+      <c r="I20">
+        <v>0.007540641136292159</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.3003972229344782</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.135699150631261</v>
       </c>
       <c r="L20">
-        <v>0.4591585166360233</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.840839544060742</v>
       </c>
       <c r="N20">
-        <v>0.6505097970045455</v>
+        <v>0.223271179220049</v>
       </c>
       <c r="O20">
-        <v>2.066535684774607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3618463232783711</v>
+      </c>
+      <c r="P20">
+        <v>1.640153644337403</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.30359488930327</v>
+        <v>1.979791222206245</v>
       </c>
       <c r="C21">
-        <v>0.5992683573460624</v>
+        <v>0.3094333948709789</v>
       </c>
       <c r="D21">
-        <v>0.05772385610975306</v>
+        <v>0.07617032445874727</v>
       </c>
       <c r="E21">
-        <v>0.04225096751715007</v>
+        <v>0.03453850895283672</v>
       </c>
       <c r="F21">
-        <v>0.8351751597426897</v>
+        <v>1.915580421340209</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.002620714071107866</v>
+      </c>
+      <c r="I21">
+        <v>0.004734306591331894</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.3146046885254279</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.216020949214695</v>
       </c>
       <c r="L21">
-        <v>0.5170446173165573</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.083854572446171</v>
       </c>
       <c r="N21">
-        <v>0.6390766341535326</v>
+        <v>0.26011390746595</v>
       </c>
       <c r="O21">
-        <v>2.266957806774997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.4131731575366686</v>
+      </c>
+      <c r="P21">
+        <v>1.654419822458962</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624147590946336</v>
+        <v>2.128864487495093</v>
       </c>
       <c r="C22">
-        <v>0.6365845717312197</v>
+        <v>0.3338551631299538</v>
       </c>
       <c r="D22">
-        <v>0.06124018641578033</v>
+        <v>0.076941319583959</v>
       </c>
       <c r="E22">
-        <v>0.04330262208314473</v>
+        <v>0.03716757547035776</v>
       </c>
       <c r="F22">
-        <v>0.8900065597102866</v>
+        <v>2.015461880676895</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.001521627108678869</v>
+      </c>
+      <c r="I22">
+        <v>0.003129701113778083</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.3249854807555081</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.26502410912795</v>
       </c>
       <c r="L22">
-        <v>0.5553822538551714</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.241817153515939</v>
       </c>
       <c r="N22">
-        <v>0.6327469941359638</v>
+        <v>0.2780536268731879</v>
       </c>
       <c r="O22">
-        <v>2.403557283392217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.4433680889145464</v>
+      </c>
+      <c r="P22">
+        <v>1.659173825459717</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.45290081176779</v>
+        <v>2.053333015232226</v>
       </c>
       <c r="C23">
-        <v>0.6166594866292314</v>
+        <v>0.3198324818938545</v>
       </c>
       <c r="D23">
-        <v>0.05936332713276471</v>
+        <v>0.07648435435435275</v>
       </c>
       <c r="E23">
-        <v>0.04273227329650808</v>
+        <v>0.03581312078912191</v>
       </c>
       <c r="F23">
-        <v>0.8605696495339856</v>
+        <v>1.967387067877837</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.002060415555454664</v>
+      </c>
+      <c r="I23">
+        <v>0.003597939330239441</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.3193396767007997</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.243129898808945</v>
       </c>
       <c r="L23">
-        <v>0.5348710597652229</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.159231799271026</v>
       </c>
       <c r="N23">
-        <v>0.6360167465119417</v>
+        <v>0.2682651844672677</v>
       </c>
       <c r="O23">
-        <v>2.330107675865889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4277302809287917</v>
+      </c>
+      <c r="P23">
+        <v>1.661410609773597</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807613610203703</v>
+        <v>1.761613079194944</v>
       </c>
       <c r="C24">
-        <v>0.541361574489656</v>
+        <v>0.2694046507243826</v>
       </c>
       <c r="D24">
-        <v>0.0522563637102138</v>
+        <v>0.0747608118607026</v>
       </c>
       <c r="E24">
-        <v>0.0407648471436417</v>
+        <v>0.03072325354634131</v>
       </c>
       <c r="F24">
-        <v>0.752695978412774</v>
+        <v>1.77923843094446</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.004923964595078822</v>
+      </c>
+      <c r="I24">
+        <v>0.006948492940777484</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.300182385559701</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.154123864096185</v>
       </c>
       <c r="L24">
-        <v>0.4582201995763171</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.84563231830046</v>
       </c>
       <c r="N24">
-        <v>0.650715098944211</v>
+        <v>0.2317414654449408</v>
       </c>
       <c r="O24">
-        <v>2.063348052324926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3679195748033663</v>
+      </c>
+      <c r="P24">
+        <v>1.662981783970196</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.116960708677709</v>
+        <v>1.448671595564917</v>
       </c>
       <c r="C25">
-        <v>0.4603372308877454</v>
+        <v>0.2170378602330345</v>
       </c>
       <c r="D25">
-        <v>0.04458452409162561</v>
+        <v>0.07274356397514481</v>
       </c>
       <c r="E25">
-        <v>0.03901574835237298</v>
+        <v>0.0254508633122823</v>
       </c>
       <c r="F25">
-        <v>0.6430208461302129</v>
+        <v>1.581329978698662</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.009586317125816701</v>
+      </c>
+      <c r="I25">
+        <v>0.01261833129782008</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.2837323320781309</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.059918178098641</v>
       </c>
       <c r="L25">
-        <v>0.3773888719463372</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.511136309838918</v>
       </c>
       <c r="N25">
-        <v>0.671099932597933</v>
+        <v>0.1926958152097527</v>
       </c>
       <c r="O25">
-        <v>1.796820879969744</v>
+        <v>0.303756157358265</v>
+      </c>
+      <c r="P25">
+        <v>1.666552114860792</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.228745428855404</v>
+        <v>1.089570875900307</v>
       </c>
       <c r="C2">
-        <v>0.1776086991883972</v>
+        <v>0.206262709368886</v>
       </c>
       <c r="D2">
-        <v>0.07103654660514458</v>
+        <v>0.0675475867809503</v>
       </c>
       <c r="E2">
-        <v>0.02182436195274029</v>
+        <v>0.02128687814346719</v>
       </c>
       <c r="F2">
-        <v>1.452071078869949</v>
+        <v>1.235398870780585</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01416227925588109</v>
+        <v>0.01117434836823061</v>
       </c>
       <c r="I2">
-        <v>0.0174581729781913</v>
+        <v>0.01260181531555382</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.00221327850258</v>
+        <v>0.8132391185782666</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3323527692825223</v>
       </c>
       <c r="M2">
-        <v>1.271431567924424</v>
+        <v>0.2779544408525041</v>
       </c>
       <c r="N2">
-        <v>0.1636612323807753</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2578399683337906</v>
+        <v>1.216219432305337</v>
       </c>
       <c r="P2">
-        <v>1.682641840826804</v>
+        <v>0.1787300636200584</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2416762032838946</v>
+      </c>
+      <c r="R2">
+        <v>1.447977620526622</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.074341774059235</v>
+        <v>0.9552878929978306</v>
       </c>
       <c r="C3">
-        <v>0.1528419846713973</v>
+        <v>0.176369565843487</v>
       </c>
       <c r="D3">
-        <v>0.06985187569647344</v>
+        <v>0.06557406587212355</v>
       </c>
       <c r="E3">
-        <v>0.01934551119929573</v>
+        <v>0.01908034360688848</v>
       </c>
       <c r="F3">
-        <v>1.358777633238887</v>
+        <v>1.166539559244384</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01797534080865659</v>
+        <v>0.01428352444851605</v>
       </c>
       <c r="I3">
-        <v>0.0220838347575234</v>
+        <v>0.01604556902710463</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.9576619622497518</v>
+        <v>0.7871465189817926</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3291050106530022</v>
       </c>
       <c r="M3">
-        <v>1.107512749222707</v>
+        <v>0.2632639075431946</v>
       </c>
       <c r="N3">
-        <v>0.1443395816194482</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2261045681277771</v>
+        <v>1.060873991753454</v>
       </c>
       <c r="P3">
-        <v>1.6873583026156</v>
+        <v>0.1583828371659806</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2124151184542704</v>
+      </c>
+      <c r="R3">
+        <v>1.47064378490218</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9794120162187596</v>
+        <v>0.8724421569293099</v>
       </c>
       <c r="C4">
-        <v>0.1379474329863797</v>
+        <v>0.1584205064558688</v>
       </c>
       <c r="D4">
-        <v>0.06908438166161446</v>
+        <v>0.06434335039349648</v>
       </c>
       <c r="E4">
-        <v>0.01783941937639888</v>
+        <v>0.01773473236789691</v>
       </c>
       <c r="F4">
-        <v>1.302036560244858</v>
+        <v>1.124589757236109</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0206338352206008</v>
+        <v>0.01645884398310865</v>
       </c>
       <c r="I4">
-        <v>0.02534262968160395</v>
+        <v>0.01849809781960632</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.9303650504287049</v>
+        <v>0.7710571007351774</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.326826428752149</v>
       </c>
       <c r="M4">
-        <v>1.007171222830721</v>
+        <v>0.2550118908730674</v>
       </c>
       <c r="N4">
-        <v>0.1325065762936291</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2066077871868259</v>
+        <v>0.9656061716766544</v>
       </c>
       <c r="P4">
-        <v>1.690352888225341</v>
+        <v>0.1459223217194534</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1944057629630542</v>
+      </c>
+      <c r="R4">
+        <v>1.484718702598315</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397031571991192</v>
+        <v>0.8376967784199678</v>
       </c>
       <c r="C5">
-        <v>0.1321765013233858</v>
+        <v>0.151438065041873</v>
       </c>
       <c r="D5">
-        <v>0.06876794210403858</v>
+        <v>0.06385923752063505</v>
       </c>
       <c r="E5">
-        <v>0.0172156410699511</v>
+        <v>0.01717622124720286</v>
       </c>
       <c r="F5">
-        <v>1.277687814430507</v>
+        <v>1.106396966750438</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02180304345394568</v>
+        <v>0.01741738884592808</v>
       </c>
       <c r="I5">
-        <v>0.02687267642686342</v>
+        <v>0.01968937475274046</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.9181593930936529</v>
+        <v>0.763573815422312</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3254320684814473</v>
       </c>
       <c r="M5">
-        <v>0.9659084701117706</v>
+        <v>0.2515556953762506</v>
       </c>
       <c r="N5">
-        <v>0.1277393328849499</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1985403066582343</v>
+        <v>0.9263988095462707</v>
       </c>
       <c r="P5">
-        <v>1.690297522279877</v>
+        <v>0.1408979540284676</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1869467981186688</v>
+      </c>
+      <c r="R5">
+        <v>1.489496215587629</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.931903288452105</v>
+        <v>0.8308443251375195</v>
       </c>
       <c r="C6">
-        <v>0.131502037316352</v>
+        <v>0.1505766123125625</v>
       </c>
       <c r="D6">
-        <v>0.06872296639391706</v>
+        <v>0.06380623393370755</v>
       </c>
       <c r="E6">
-        <v>0.01709640900261444</v>
+        <v>0.01706945674586269</v>
       </c>
       <c r="F6">
-        <v>1.272002150156794</v>
+        <v>1.101949553616336</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02201282510765801</v>
+        <v>0.01758965414245584</v>
       </c>
       <c r="I6">
-        <v>0.02726304319600725</v>
+        <v>0.02003510421638754</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.9147986308326139</v>
+        <v>0.7612225239216031</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.324715694564766</v>
       </c>
       <c r="M6">
-        <v>0.9585295510365768</v>
+        <v>0.2506451368420386</v>
       </c>
       <c r="N6">
-        <v>0.1270083313543253</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1970564982459244</v>
+        <v>0.9193985075286832</v>
       </c>
       <c r="P6">
-        <v>1.688706086423551</v>
+        <v>0.1401215866050265</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1855756578160701</v>
+      </c>
+      <c r="R6">
+        <v>1.48907858452764</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9755771320257338</v>
+        <v>0.8690262406135218</v>
       </c>
       <c r="C7">
-        <v>0.1386345893453438</v>
+        <v>0.159127626464965</v>
       </c>
       <c r="D7">
-        <v>0.06910355385094746</v>
+        <v>0.06441454875040264</v>
       </c>
       <c r="E7">
-        <v>0.01778765395170634</v>
+        <v>0.01768867384700989</v>
       </c>
       <c r="F7">
-        <v>1.297199276379445</v>
+        <v>1.120441769262285</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02067809131746567</v>
+        <v>0.01649554913502194</v>
       </c>
       <c r="I7">
-        <v>0.02569953028289529</v>
+        <v>0.01888329719107773</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.9265542011404122</v>
+        <v>0.7679393153488761</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3255193683738753</v>
       </c>
       <c r="M7">
-        <v>1.005159304223866</v>
+        <v>0.2539951842646531</v>
       </c>
       <c r="N7">
-        <v>0.1326075163662921</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.206104746333704</v>
+        <v>0.963732591120106</v>
       </c>
       <c r="P7">
-        <v>1.686042401088315</v>
+        <v>0.1460125241061618</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.19394430182912</v>
+      </c>
+      <c r="R7">
+        <v>1.48150062041703</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.171110439202323</v>
+        <v>1.039417494740462</v>
       </c>
       <c r="C8">
-        <v>0.1700188072119744</v>
+        <v>0.1969390373904787</v>
       </c>
       <c r="D8">
-        <v>0.07067291486506022</v>
+        <v>0.06698346952480705</v>
       </c>
       <c r="E8">
-        <v>0.02090742937666956</v>
+        <v>0.02047227165916077</v>
       </c>
       <c r="F8">
-        <v>1.413808931362041</v>
+        <v>1.206441491148269</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01544085748484414</v>
+        <v>0.01221567812780858</v>
       </c>
       <c r="I8">
-        <v>0.0193628517196478</v>
+        <v>0.01415853126383393</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.982012945124616</v>
+        <v>0.8002998663550116</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3296868376744584</v>
       </c>
       <c r="M8">
-        <v>1.212885497924304</v>
+        <v>0.2713716257025318</v>
       </c>
       <c r="N8">
-        <v>0.1572124788866986</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2463711157290476</v>
+        <v>1.16082308205003</v>
       </c>
       <c r="P8">
-        <v>1.678620010244998</v>
+        <v>0.1719185834199735</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2311132991004676</v>
+      </c>
+      <c r="R8">
+        <v>1.451555470258398</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.56000812842251</v>
+        <v>1.376038970785828</v>
       </c>
       <c r="C9">
-        <v>0.2330432430933485</v>
+        <v>0.2732626124273736</v>
       </c>
       <c r="D9">
-        <v>0.0733815662456454</v>
+        <v>0.07172277498096946</v>
       </c>
       <c r="E9">
-        <v>0.02728428865545673</v>
+        <v>0.02611923061114574</v>
       </c>
       <c r="F9">
-        <v>1.655515132300792</v>
+        <v>1.38516936966775</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.007790487906143007</v>
+        <v>0.006019507477586949</v>
       </c>
       <c r="I9">
-        <v>0.009939331088825831</v>
+        <v>0.007160202935083682</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.097977216184503</v>
+        <v>0.8687005789400573</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3377509267623893</v>
       </c>
       <c r="M9">
-        <v>1.626104237235069</v>
+        <v>0.3135179824687313</v>
       </c>
       <c r="N9">
-        <v>0.2055066831862433</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3260624653919351</v>
+        <v>1.551316921842158</v>
       </c>
       <c r="P9">
-        <v>1.672580469955363</v>
+        <v>0.2227802679617241</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3043898603775546</v>
+      </c>
+      <c r="R9">
+        <v>1.399854746561942</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.831806017226654</v>
+        <v>1.610919181943785</v>
       </c>
       <c r="C10">
-        <v>0.2837460628620647</v>
+        <v>0.3339135611424524</v>
       </c>
       <c r="D10">
-        <v>0.07541923422289898</v>
+        <v>0.07567265335928042</v>
       </c>
       <c r="E10">
-        <v>0.03067773517887495</v>
+        <v>0.02911204341045615</v>
       </c>
       <c r="F10">
-        <v>1.812701890120778</v>
+        <v>1.500028704800158</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.00436432736768344</v>
+        <v>0.0033294735934839</v>
       </c>
       <c r="I10">
-        <v>0.005664748243178863</v>
+        <v>0.004183421081961569</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.165445811560964</v>
+        <v>0.9053506318690197</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3374730490324751</v>
       </c>
       <c r="M10">
-        <v>1.924507429013829</v>
+        <v>0.3431023851943849</v>
       </c>
       <c r="N10">
-        <v>0.2295936034723525</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3767515395145509</v>
+        <v>1.833043038096662</v>
       </c>
       <c r="P10">
-        <v>1.64706780978517</v>
+        <v>0.2482015484860796</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3507029513638642</v>
+      </c>
+      <c r="R10">
+        <v>1.348587807445014</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.840047474694188</v>
+        <v>1.628259156168923</v>
       </c>
       <c r="C11">
-        <v>0.3241569797600903</v>
+        <v>0.375687273697622</v>
       </c>
       <c r="D11">
-        <v>0.07950197678499649</v>
+        <v>0.08290866000028529</v>
       </c>
       <c r="E11">
-        <v>0.02413445244710166</v>
+        <v>0.02389143802463234</v>
       </c>
       <c r="F11">
-        <v>1.688651431280164</v>
+        <v>1.39953073123344</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02287794435606116</v>
+        <v>0.02189058075103034</v>
       </c>
       <c r="I11">
-        <v>0.005369188569838812</v>
+        <v>0.004231365874947102</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.050145731028927</v>
+        <v>0.8155571488865618</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2998474381687544</v>
       </c>
       <c r="M11">
-        <v>1.99191770053298</v>
+        <v>0.3147034728981311</v>
       </c>
       <c r="N11">
-        <v>0.1497591010971533</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3332758286219502</v>
+        <v>1.903251630185423</v>
       </c>
       <c r="P11">
-        <v>1.470092385773</v>
+        <v>0.1645256184703143</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3097418014706008</v>
+      </c>
+      <c r="R11">
+        <v>1.219913126862608</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.793986011570865</v>
+        <v>1.597216281362307</v>
       </c>
       <c r="C12">
-        <v>0.3469492111134116</v>
+        <v>0.3971119939646996</v>
       </c>
       <c r="D12">
-        <v>0.08391886145501815</v>
+        <v>0.08920123654377932</v>
       </c>
       <c r="E12">
-        <v>0.024115564746924</v>
+        <v>0.02495464120955582</v>
       </c>
       <c r="F12">
-        <v>1.560521708314155</v>
+        <v>1.298355094401103</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06184128224491303</v>
+        <v>0.06080629675512483</v>
       </c>
       <c r="I12">
-        <v>0.005300259360839554</v>
+        <v>0.004165815466406819</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.9491344362059806</v>
+        <v>0.7402736341913254</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2717534642768378</v>
       </c>
       <c r="M12">
-        <v>1.986756358423804</v>
+        <v>0.2868942685824223</v>
       </c>
       <c r="N12">
-        <v>0.0929143596054729</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2890557321917058</v>
+        <v>1.903994775642872</v>
       </c>
       <c r="P12">
-        <v>1.347481712344795</v>
+        <v>0.1044213975235664</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2683827295353218</v>
+      </c>
+      <c r="R12">
+        <v>1.138500775121152</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.698495839089787</v>
+        <v>1.522644427256068</v>
       </c>
       <c r="C13">
-        <v>0.3583577928933721</v>
+        <v>0.4050082738834817</v>
       </c>
       <c r="D13">
-        <v>0.08879064750385623</v>
+        <v>0.09512868734119451</v>
       </c>
       <c r="E13">
-        <v>0.02890056292304521</v>
+        <v>0.03067500099216147</v>
       </c>
       <c r="F13">
-        <v>1.414851139023725</v>
+        <v>1.184569696419004</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1182377238574759</v>
+        <v>0.1170649380539004</v>
       </c>
       <c r="I13">
-        <v>0.005810745883517932</v>
+        <v>0.004484684492998881</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.8477133652753608</v>
+        <v>0.6670106472619821</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2469293288956216</v>
       </c>
       <c r="M13">
-        <v>1.922916237063475</v>
+        <v>0.2566258746140235</v>
       </c>
       <c r="N13">
-        <v>0.05092496957627191</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2414132861563125</v>
+        <v>1.848949903085497</v>
       </c>
       <c r="P13">
-        <v>1.252315189399219</v>
+        <v>0.05945322929265018</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2240231318811041</v>
+      </c>
+      <c r="R13">
+        <v>1.082646711919022</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.608912247509721</v>
+        <v>1.450259003120806</v>
       </c>
       <c r="C14">
-        <v>0.3614775901281746</v>
+        <v>0.404682684777157</v>
       </c>
       <c r="D14">
-        <v>0.09257238554389602</v>
+        <v>0.09923557117155468</v>
       </c>
       <c r="E14">
-        <v>0.03517389357523015</v>
+        <v>0.03750305770279816</v>
       </c>
       <c r="F14">
-        <v>1.305054818743898</v>
+        <v>1.099042566505346</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1682097687640294</v>
+        <v>0.1668948221461477</v>
       </c>
       <c r="I14">
-        <v>0.006566146677677409</v>
+        <v>0.005020649438565172</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.776875313930752</v>
+        <v>0.6166811600844326</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2307468659543623</v>
       </c>
       <c r="M14">
-        <v>1.851538415837609</v>
+        <v>0.2346571807119027</v>
       </c>
       <c r="N14">
-        <v>0.03061680838778713</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2071232912928345</v>
+        <v>1.784983885714468</v>
       </c>
       <c r="P14">
-        <v>1.199404492634876</v>
+        <v>0.03724964749513759</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1921612153737939</v>
+      </c>
+      <c r="R14">
+        <v>1.05580754808868</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.575614815075227</v>
+        <v>1.422464208968165</v>
       </c>
       <c r="C15">
-        <v>0.3600518352556605</v>
+        <v>0.4020136333122366</v>
       </c>
       <c r="D15">
-        <v>0.09345553185340094</v>
+        <v>0.1000684632674549</v>
       </c>
       <c r="E15">
-        <v>0.03691178807918938</v>
+        <v>0.03935426736878611</v>
       </c>
       <c r="F15">
-        <v>1.272973205161193</v>
+        <v>1.074147237202283</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1810091326338039</v>
+        <v>0.1796296910608675</v>
       </c>
       <c r="I15">
-        <v>0.007040347533838087</v>
+        <v>0.005411191294343531</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.7579906366923765</v>
+        <v>0.6035897279306681</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2268666337218619</v>
       </c>
       <c r="M15">
-        <v>1.821344932522976</v>
+        <v>0.22848306844379</v>
       </c>
       <c r="N15">
-        <v>0.02682562191283644</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1976914223726496</v>
+        <v>1.757206569363206</v>
       </c>
       <c r="P15">
-        <v>1.189602975128864</v>
+        <v>0.03303131761614786</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.183424866132686</v>
+      </c>
+      <c r="R15">
+        <v>1.052557404493182</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.47846360887138</v>
+        <v>1.336524467865416</v>
       </c>
       <c r="C16">
-        <v>0.3355143234674927</v>
+        <v>0.3738516696326997</v>
       </c>
       <c r="D16">
-        <v>0.09137193615280381</v>
+        <v>0.09683742404173756</v>
       </c>
       <c r="E16">
-        <v>0.03430273640558745</v>
+        <v>0.0366276405696766</v>
       </c>
       <c r="F16">
-        <v>1.234258333184442</v>
+        <v>1.046284157599516</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1697516458916652</v>
+        <v>0.1680628205430992</v>
       </c>
       <c r="I16">
-        <v>0.008846411035854373</v>
+        <v>0.006740776664421411</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.7491206713596696</v>
+        <v>0.601332137138094</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2295568396007432</v>
       </c>
       <c r="M16">
-        <v>1.705783796832975</v>
+        <v>0.2228964580820048</v>
       </c>
       <c r="N16">
-        <v>0.02649144153547311</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1868646395716667</v>
+        <v>1.646919872808553</v>
       </c>
       <c r="P16">
-        <v>1.216942675255837</v>
+        <v>0.03283935763768042</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.173612158001756</v>
+      </c>
+      <c r="R16">
+        <v>1.081288334549654</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.451131832014482</v>
+        <v>1.308787679380629</v>
       </c>
       <c r="C17">
-        <v>0.3152016988909168</v>
+        <v>0.3526448365225292</v>
       </c>
       <c r="D17">
-        <v>0.08769357289351376</v>
+        <v>0.09216623400929791</v>
       </c>
       <c r="E17">
-        <v>0.02845399072733734</v>
+        <v>0.03042623130520994</v>
       </c>
       <c r="F17">
-        <v>1.262207537256458</v>
+        <v>1.070020242673948</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.13279825613958</v>
+        <v>0.1309435837784463</v>
       </c>
       <c r="I17">
-        <v>0.009889241765184131</v>
+        <v>0.007531997720453099</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.7791204726280725</v>
+        <v>0.6259188344264004</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2404841054175861</v>
       </c>
       <c r="M17">
-        <v>1.655121163350429</v>
+        <v>0.2298011008340737</v>
       </c>
       <c r="N17">
-        <v>0.03537228580098528</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1962478293543164</v>
+        <v>1.596390117503773</v>
       </c>
       <c r="P17">
-        <v>1.264802120640368</v>
+        <v>0.04278587828262914</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1825447856737448</v>
+      </c>
+      <c r="R17">
+        <v>1.117186093564413</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.483245991289095</v>
+        <v>1.330203897476792</v>
       </c>
       <c r="C18">
-        <v>0.295600721898353</v>
+        <v>0.3342120119818333</v>
       </c>
       <c r="D18">
-        <v>0.08277326188945722</v>
+        <v>0.08609169278827977</v>
       </c>
       <c r="E18">
-        <v>0.02206859670997474</v>
+        <v>0.02338803157836011</v>
       </c>
       <c r="F18">
-        <v>1.355782547931838</v>
+        <v>1.14498786537257</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0800626684022987</v>
+        <v>0.07819434734442865</v>
       </c>
       <c r="I18">
-        <v>0.009885763531143787</v>
+        <v>0.007437021749775674</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.8512103519416598</v>
+        <v>0.6804809964116174</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2615607711041399</v>
       </c>
       <c r="M18">
-        <v>1.655071021792281</v>
+        <v>0.2493309494152598</v>
       </c>
       <c r="N18">
-        <v>0.06104606587586758</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2258290559636436</v>
+        <v>1.592069178794503</v>
       </c>
       <c r="P18">
-        <v>1.345589760756326</v>
+        <v>0.07058900206025243</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2102667325438183</v>
+      </c>
+      <c r="R18">
+        <v>1.170711396559671</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.555289729491847</v>
+        <v>1.384432648243433</v>
       </c>
       <c r="C19">
-        <v>0.2799779566598488</v>
+        <v>0.321180958930313</v>
       </c>
       <c r="D19">
-        <v>0.07844267235671865</v>
+        <v>0.08041417011518348</v>
       </c>
       <c r="E19">
-        <v>0.02007774278953761</v>
+        <v>0.02044966222263334</v>
       </c>
       <c r="F19">
-        <v>1.491829396491994</v>
+        <v>1.25211020057526</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03407509865490255</v>
+        <v>0.03234769867208342</v>
       </c>
       <c r="I19">
-        <v>0.009589079850843341</v>
+        <v>0.007304268253221835</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.9511897986031244</v>
+        <v>0.7541631807878559</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2889269039161206</v>
       </c>
       <c r="M19">
-        <v>1.692724469604286</v>
+        <v>0.2771178347455816</v>
       </c>
       <c r="N19">
-        <v>0.1105045086965646</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2714290899705603</v>
+        <v>1.622408062491701</v>
       </c>
       <c r="P19">
-        <v>1.453640096838349</v>
+        <v>0.1231179172226291</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2528971540997134</v>
+      </c>
+      <c r="R19">
+        <v>1.239860253700712</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.749242498680559</v>
+        <v>1.539527367194751</v>
       </c>
       <c r="C20">
-        <v>0.2727728079493659</v>
+        <v>0.320423888593524</v>
       </c>
       <c r="D20">
-        <v>0.07503225312162343</v>
+        <v>0.0749805829821284</v>
       </c>
       <c r="E20">
-        <v>0.02956716034061557</v>
+        <v>0.02813532868192592</v>
       </c>
       <c r="F20">
-        <v>1.756153708638692</v>
+        <v>1.456990108938228</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.005171595437275744</v>
+        <v>0.003954585645003839</v>
       </c>
       <c r="I20">
-        <v>0.007540641136292159</v>
+        <v>0.00589163070913834</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>1.135699150631261</v>
+        <v>0.886134357596319</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3341229293865666</v>
       </c>
       <c r="M20">
-        <v>1.840839544060742</v>
+        <v>0.3313846323938137</v>
       </c>
       <c r="N20">
-        <v>0.223271179220049</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3618463232783711</v>
+        <v>1.754285088380584</v>
       </c>
       <c r="P20">
-        <v>1.640153644337403</v>
+        <v>0.2414928924300739</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3370975285255255</v>
+      </c>
+      <c r="R20">
+        <v>1.352301657685878</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.979791222206245</v>
+        <v>1.736380891627419</v>
       </c>
       <c r="C21">
-        <v>0.3094333948709789</v>
+        <v>0.3654288032157353</v>
       </c>
       <c r="D21">
-        <v>0.07617032445874727</v>
+        <v>0.07717418396659781</v>
       </c>
       <c r="E21">
-        <v>0.03453850895283672</v>
+        <v>0.03249865570093302</v>
       </c>
       <c r="F21">
-        <v>1.915580421340209</v>
+        <v>1.575487057418073</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.002620714071107866</v>
+        <v>0.00191404098407788</v>
       </c>
       <c r="I21">
-        <v>0.004734306591331894</v>
+        <v>0.003933304385370207</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.216020949214695</v>
+        <v>0.9351109101790485</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3411230767101188</v>
       </c>
       <c r="M21">
-        <v>2.083854572446171</v>
+        <v>0.3633593765854499</v>
       </c>
       <c r="N21">
-        <v>0.26011390746595</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4131731575366686</v>
+        <v>1.982129828508988</v>
       </c>
       <c r="P21">
-        <v>1.654419822458962</v>
+        <v>0.2801759756663955</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3841577011962158</v>
+      </c>
+      <c r="R21">
+        <v>1.335487089107943</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.128864487495093</v>
+        <v>1.863992718673387</v>
       </c>
       <c r="C22">
-        <v>0.3338551631299538</v>
+        <v>0.3951596428082382</v>
       </c>
       <c r="D22">
-        <v>0.076941319583959</v>
+        <v>0.07871031485996483</v>
       </c>
       <c r="E22">
-        <v>0.03716757547035776</v>
+        <v>0.03479952417492171</v>
       </c>
       <c r="F22">
-        <v>2.015461880676895</v>
+        <v>1.649876439975941</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.001521627108678869</v>
+        <v>0.001065837218195531</v>
       </c>
       <c r="I22">
-        <v>0.003129701113778083</v>
+        <v>0.002697273981736359</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.26502410912795</v>
+        <v>0.9647818335289884</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3445163278857564</v>
       </c>
       <c r="M22">
-        <v>2.241817153515939</v>
+        <v>0.3841748708919894</v>
       </c>
       <c r="N22">
-        <v>0.2780536268731879</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4433680889145464</v>
+        <v>2.1303057798618</v>
       </c>
       <c r="P22">
-        <v>1.659173825459717</v>
+        <v>0.2990443155491391</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.4117268964398875</v>
+      </c>
+      <c r="R22">
+        <v>1.321899457732947</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.053333015232226</v>
+        <v>1.799465675321159</v>
       </c>
       <c r="C23">
-        <v>0.3198324818938545</v>
+        <v>0.3782342114465109</v>
       </c>
       <c r="D23">
-        <v>0.07648435435435275</v>
+        <v>0.07776574364937971</v>
       </c>
       <c r="E23">
-        <v>0.03581312078912191</v>
+        <v>0.03361372683977049</v>
       </c>
       <c r="F23">
-        <v>1.967387067877837</v>
+        <v>1.614614248383646</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.002060415555454664</v>
+        <v>0.001479383376792098</v>
       </c>
       <c r="I23">
-        <v>0.003597939330239441</v>
+        <v>0.002921968784029616</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.243129898808945</v>
+        <v>0.9523605045435914</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3439202647377329</v>
       </c>
       <c r="M23">
-        <v>2.159231799271026</v>
+        <v>0.3743683193971208</v>
       </c>
       <c r="N23">
-        <v>0.2682651844672677</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4277302809287917</v>
+        <v>2.052818898260654</v>
       </c>
       <c r="P23">
-        <v>1.661410609773597</v>
+        <v>0.2887671078445919</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3974495240469764</v>
+      </c>
+      <c r="R23">
+        <v>1.332507939048547</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.761613079194944</v>
+        <v>1.549403353187358</v>
       </c>
       <c r="C24">
-        <v>0.2694046507243826</v>
+        <v>0.317122772853196</v>
       </c>
       <c r="D24">
-        <v>0.0747608118607026</v>
+        <v>0.0743665298409617</v>
       </c>
       <c r="E24">
-        <v>0.03072325354634131</v>
+        <v>0.02914853184692401</v>
       </c>
       <c r="F24">
-        <v>1.77923843094446</v>
+        <v>1.475645757661027</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.004923964595078822</v>
+        <v>0.003728473263723941</v>
       </c>
       <c r="I24">
-        <v>0.006948492940777484</v>
+        <v>0.005219529462997308</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>1.154123864096185</v>
+        <v>0.9002108192971505</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3393969267374217</v>
       </c>
       <c r="M24">
-        <v>1.84563231830046</v>
+        <v>0.3366450344780958</v>
       </c>
       <c r="N24">
-        <v>0.2317414654449408</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3679195748033663</v>
+        <v>1.758154996661574</v>
       </c>
       <c r="P24">
-        <v>1.662981783970196</v>
+        <v>0.2503638373638495</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3427594686814928</v>
+      </c>
+      <c r="R24">
+        <v>1.368067915990217</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.448671595564917</v>
+        <v>1.279814008117881</v>
       </c>
       <c r="C25">
-        <v>0.2170378602330345</v>
+        <v>0.2536535315918229</v>
       </c>
       <c r="D25">
-        <v>0.07274356397514481</v>
+        <v>0.07062566023020622</v>
       </c>
       <c r="E25">
-        <v>0.0254508633122823</v>
+        <v>0.02450139609559354</v>
       </c>
       <c r="F25">
-        <v>1.581329978698662</v>
+        <v>1.329427346782467</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.009586317125816701</v>
+        <v>0.007465865638366875</v>
       </c>
       <c r="I25">
-        <v>0.01261833129782008</v>
+        <v>0.009332320766982427</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.059918178098641</v>
+        <v>0.8448813353672406</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3337739181161155</v>
       </c>
       <c r="M25">
-        <v>1.511136309838918</v>
+        <v>0.299468868795671</v>
       </c>
       <c r="N25">
-        <v>0.1926958152097527</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.303756157358265</v>
+        <v>1.442915583784981</v>
       </c>
       <c r="P25">
-        <v>1.666552114860792</v>
+        <v>0.2092654984091951</v>
       </c>
       <c r="Q25">
+        <v>0.2839182608841</v>
+      </c>
+      <c r="R25">
+        <v>1.408174433891844</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
